--- a/data/trans_orig/P6905-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6905-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85275E54-D61E-4840-BAA7-BF48E8F696EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B24BFA3-B583-4500-9707-2B8D859E7862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{305D92F2-BFC5-42BD-8674-B41BDFD69075}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{62E5FB32-46A1-4F0C-A610-CA8CAD5C2C84}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="639">
   <si>
     <t>Población según si su trabajo le afecta de manera que tiene dolores de cabeza en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>42,47%</t>
   </si>
   <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>58,57%</t>
   </si>
   <si>
     <t>64,09%</t>
   </si>
   <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
+    <t>43,25%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
   </si>
   <si>
     <t>51,13%</t>
   </si>
   <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>57,53%</t>
   </si>
   <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>72,98%</t>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
   </si>
   <si>
     <t>35,91%</t>
   </si>
   <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>59,23%</t>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
   </si>
   <si>
     <t>48,87%</t>
   </si>
   <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>60,89%</t>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>60,74%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>23,76%</t>
   </si>
   <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
   </si>
   <si>
     <t>26,43%</t>
   </si>
   <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
   </si>
   <si>
     <t>24,59%</t>
   </si>
   <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
   </si>
   <si>
     <t>76,24%</t>
   </si>
   <si>
-    <t>61,58%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
+    <t>64,92%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
   </si>
   <si>
     <t>73,57%</t>
   </si>
   <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
+    <t>57,94%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
   </si>
   <si>
     <t>75,41%</t>
   </si>
   <si>
-    <t>64,63%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
+    <t>65,79%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -197,55 +197,55 @@
     <t>25,52%</t>
   </si>
   <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
   </si>
   <si>
     <t>18,37%</t>
   </si>
   <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
   </si>
   <si>
     <t>22,86%</t>
   </si>
   <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
   </si>
   <si>
     <t>74,48%</t>
   </si>
   <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
   </si>
   <si>
     <t>81,63%</t>
   </si>
   <si>
-    <t>59,58%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
   </si>
   <si>
     <t>77,14%</t>
   </si>
   <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -254,1684 +254,1708 @@
     <t>24,99%</t>
   </si>
   <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
   </si>
   <si>
     <t>32,12%</t>
   </si>
   <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>61,72%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>67,88%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>62,06%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>68,78%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>46,86%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>62,22%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>67,6%</t>
+  </si>
+  <si>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>60,14%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>67,29%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>60,38%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>74,27%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>73,2%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>56,34%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>63,95%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>56,72%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>75,16%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>69,96%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>52,13%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>66,49%</t>
+  </si>
+  <si>
+    <t>62,99%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores de cabeza en 2012 (Tasa respuesta: 7,82%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>70,78%</t>
+  </si>
+  <si>
+    <t>57,39%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>62,86%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>46,38%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>51,89%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>60,69%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>52,34%</t>
+  </si>
+  <si>
+    <t>67,77%</t>
+  </si>
+  <si>
+    <t>56,43%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>57,06%</t>
+  </si>
+  <si>
+    <t>47,66%</t>
+  </si>
+  <si>
+    <t>65,19%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>58,64%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>50,13%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>77,4%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>49,87%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>60,12%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>58,35%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>56,57%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
+  </si>
+  <si>
+    <t>64,95%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>56,59%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
+  </si>
+  <si>
+    <t>66,08%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>63,13%</t>
+  </si>
+  <si>
+    <t>71,8%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores de cabeza en 2015 (Tasa respuesta: 8,05%)</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
+  </si>
+  <si>
+    <t>67,47%</t>
+  </si>
+  <si>
+    <t>52,42%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>60,07%</t>
+  </si>
+  <si>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>70,5%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>58,85%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>56,15%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>71,16%</t>
+  </si>
+  <si>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
     <t>14,42%</t>
   </si>
   <si>
-    <t>53,83%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>67,88%</t>
-  </si>
-  <si>
-    <t>46,17%</t>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
   </si>
   <si>
     <t>85,58%</t>
   </si>
   <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>61,33%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>44,33%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>55,67%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>68,78%</t>
-  </si>
-  <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>46,86%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>62,52%</t>
-  </si>
-  <si>
-    <t>65,08%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>53,14%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>68,08%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>63,87%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>62,09%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>56,11%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>67,29%</t>
-  </si>
-  <si>
-    <t>56,05%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
-  </si>
-  <si>
-    <t>60,38%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>56,33%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>26,29%</t>
+    <t>56,5%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>59,35%</t>
+  </si>
+  <si>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>67,07%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>73,82%</t>
+  </si>
+  <si>
+    <t>69,37%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>56,64%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>67,96%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>59,59%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>73,15%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>50,52%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>66,39%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>72,89%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>58,88%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>62,48%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>72,84%</t>
+  </si>
+  <si>
+    <t>67,35%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>71,58%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores de cabeza en 2023 (Tasa respuesta: 9,29%)</t>
+  </si>
+  <si>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>46,91%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>57,32%</t>
+  </si>
+  <si>
+    <t>60,46%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>53,09%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>57,37%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>62,78%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>61,87%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>72,0%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
   </si>
   <si>
     <t>18,89%</t>
   </si>
   <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>57,71%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
+  </si>
+  <si>
+    <t>61,36%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
   </si>
   <si>
     <t>81,11%</t>
   </si>
   <si>
-    <t>56,72%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>69,79%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>60,97%</t>
-  </si>
-  <si>
-    <t>75,77%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>69,96%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>74,34%</t>
-  </si>
-  <si>
-    <t>59,04%</t>
-  </si>
-  <si>
-    <t>51,95%</t>
-  </si>
-  <si>
-    <t>65,88%</t>
-  </si>
-  <si>
-    <t>66,49%</t>
-  </si>
-  <si>
-    <t>62,98%</t>
-  </si>
-  <si>
-    <t>70,2%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores de cabeza en 2012 (Tasa respuesta: 7,82%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>70,78%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>62,86%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>51,89%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>77,68%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>58,34%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>67,77%</t>
-  </si>
-  <si>
-    <t>56,43%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>54,51%</t>
-  </si>
-  <si>
-    <t>57,06%</t>
-  </si>
-  <si>
-    <t>47,66%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>66,76%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>58,64%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>61,22%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>81,52%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>50,13%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>62,57%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>60,12%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>58,35%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>56,57%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
-  </si>
-  <si>
-    <t>64,95%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
-  </si>
-  <si>
-    <t>73,93%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>56,59%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>65,76%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>59,02%</t>
-  </si>
-  <si>
-    <t>52,02%</t>
-  </si>
-  <si>
-    <t>66,08%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>63,13%</t>
-  </si>
-  <si>
-    <t>71,8%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores de cabeza en 2015 (Tasa respuesta: 8,05%)</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>65,98%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>50,14%</t>
-  </si>
-  <si>
-    <t>67,47%</t>
-  </si>
-  <si>
-    <t>53,11%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>64,4%</t>
-  </si>
-  <si>
-    <t>60,07%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>59,39%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>56,15%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>71,17%</t>
-  </si>
-  <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>57,99%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>73,19%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>59,92%</t>
-  </si>
-  <si>
-    <t>59,0%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>64,28%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>65,58%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
-  </si>
-  <si>
-    <t>56,64%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>71,56%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>64,87%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>78,53%</t>
-  </si>
-  <si>
-    <t>59,14%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>73,62%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>66,37%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>41,21%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>72,89%</t>
-  </si>
-  <si>
-    <t>58,79%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>57,57%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>62,78%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>72,84%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
-  </si>
-  <si>
-    <t>65,04%</t>
-  </si>
-  <si>
-    <t>67,4%</t>
-  </si>
-  <si>
-    <t>63,49%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores de cabeza en 2023 (Tasa respuesta: 9,29%)</t>
-  </si>
-  <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>60,7%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>58,51%</t>
-  </si>
-  <si>
-    <t>60,46%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>53,09%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>71,53%</t>
-  </si>
-  <si>
-    <t>57,37%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>70,3%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>69,81%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>49,98%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>61,37%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>61,87%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
     <t>64,33%</t>
   </si>
   <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>76,34%</t>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>75,99%</t>
   </si>
   <si>
     <t>14,63%</t>
   </si>
   <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
   </si>
   <si>
     <t>13,72%</t>
   </si>
   <si>
-    <t>3,44%</t>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
   </si>
   <si>
     <t>14,28%</t>
   </si>
   <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
+    <t>6,07%</t>
   </si>
   <si>
     <t>85,37%</t>
   </si>
   <si>
-    <t>68,37%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
+    <t>64,56%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
   </si>
   <si>
     <t>86,28%</t>
   </si>
   <si>
-    <t>96,56%</t>
+    <t>65,75%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
   </si>
   <si>
     <t>85,72%</t>
   </si>
   <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
+    <t>93,93%</t>
   </si>
   <si>
     <t>19,86%</t>
   </si>
   <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
   </si>
   <si>
     <t>25,34%</t>
   </si>
   <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
   </si>
   <si>
     <t>22,59%</t>
   </si>
   <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
   </si>
   <si>
     <t>80,14%</t>
   </si>
   <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
+    <t>65,5%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
   </si>
   <si>
     <t>74,66%</t>
   </si>
   <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
+    <t>61,24%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
   </si>
   <si>
     <t>77,41%</t>
   </si>
   <si>
-    <t>67,5%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
   </si>
   <si>
     <t>24,89%</t>
   </si>
   <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
   </si>
   <si>
     <t>40,07%</t>
   </si>
   <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>49,85%</t>
   </si>
   <si>
     <t>32,52%</t>
   </si>
   <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
   </si>
   <si>
     <t>75,11%</t>
   </si>
   <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
+    <t>62,73%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
   </si>
   <si>
     <t>59,93%</t>
   </si>
   <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
+    <t>50,15%</t>
+  </si>
+  <si>
+    <t>70,34%</t>
   </si>
   <si>
     <t>67,48%</t>
   </si>
   <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
+    <t>59,81%</t>
+  </si>
+  <si>
+    <t>75,44%</t>
   </si>
   <si>
     <t>23,83%</t>
   </si>
   <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
   </si>
   <si>
     <t>28,88%</t>
   </si>
   <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>55,1%</t>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
   </si>
   <si>
     <t>26,36%</t>
   </si>
   <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
   </si>
   <si>
     <t>76,17%</t>
   </si>
   <si>
-    <t>63,6%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
+    <t>63,39%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
   </si>
   <si>
     <t>71,12%</t>
   </si>
   <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
   </si>
   <si>
     <t>73,64%</t>
   </si>
   <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
+    <t>59,75%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
   </si>
   <si>
     <t>22,37%</t>
   </si>
   <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
   </si>
   <si>
     <t>34,72%</t>
   </si>
   <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
   </si>
   <si>
     <t>28,62%</t>
   </si>
   <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
+    <t>24,64%</t>
   </si>
   <si>
     <t>77,63%</t>
   </si>
   <si>
-    <t>72,29%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
+    <t>72,23%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
   </si>
   <si>
     <t>65,28%</t>
   </si>
   <si>
-    <t>59,44%</t>
-  </si>
-  <si>
-    <t>70,34%</t>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
   </si>
   <si>
     <t>71,38%</t>
   </si>
   <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>74,7%</t>
+    <t>75,36%</t>
   </si>
 </sst>
 </file>
@@ -2343,7 +2367,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D95B884-504A-47CA-8CBE-6292D3CA87A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEF2E5B2-5DF7-42C7-A91F-CB0DC22490DE}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3108,7 +3132,7 @@
         <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -3117,13 +3141,13 @@
         <v>9341</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3138,13 +3162,13 @@
         <v>17545</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -3153,13 +3177,13 @@
         <v>3038</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>19</v>
@@ -3168,13 +3192,13 @@
         <v>20584</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3230,7 +3254,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3242,13 +3266,13 @@
         <v>19592</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -3257,13 +3281,13 @@
         <v>9173</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>28</v>
@@ -3272,13 +3296,13 @@
         <v>28764</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3293,13 +3317,13 @@
         <v>22218</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -3308,13 +3332,13 @@
         <v>4921</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>26</v>
@@ -3323,13 +3347,13 @@
         <v>27139</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3385,7 +3409,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3397,13 +3421,13 @@
         <v>28934</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>17</v>
@@ -3412,13 +3436,13 @@
         <v>17250</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>44</v>
@@ -3427,13 +3451,13 @@
         <v>46185</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3448,13 +3472,13 @@
         <v>59514</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>26</v>
@@ -3463,13 +3487,13 @@
         <v>26285</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>83</v>
@@ -3478,13 +3502,13 @@
         <v>85798</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3540,7 +3564,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3552,13 +3576,13 @@
         <v>28639</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>24</v>
+        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>21</v>
@@ -3567,13 +3591,13 @@
         <v>21545</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>51</v>
@@ -3582,13 +3606,13 @@
         <v>50184</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3603,13 +3627,13 @@
         <v>80276</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>14</v>
+        <v>156</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>26</v>
@@ -3618,13 +3642,13 @@
         <v>28241</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>106</v>
@@ -3633,13 +3657,13 @@
         <v>108517</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3707,13 +3731,13 @@
         <v>141892</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>88</v>
@@ -3722,13 +3746,13 @@
         <v>90168</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>219</v>
@@ -3737,13 +3761,13 @@
         <v>232061</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3758,13 +3782,13 @@
         <v>330413</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>127</v>
@@ -3773,13 +3797,13 @@
         <v>129953</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>446</v>
@@ -3788,13 +3812,13 @@
         <v>460366</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3850,7 +3874,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -3874,7 +3898,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA50C562-538F-4D67-BF0D-028E1309B70D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AE02AC4-5CE3-4791-B538-F6ACC8C700FB}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3891,7 +3915,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3996,39 +4020,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4041,39 +4065,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4086,39 +4110,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4135,13 +4159,13 @@
         <v>16536</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -4150,13 +4174,13 @@
         <v>7131</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="M7" s="7">
         <v>24</v>
@@ -4165,13 +4189,13 @@
         <v>23667</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4186,13 +4210,13 @@
         <v>40054</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H8" s="7">
         <v>24</v>
@@ -4201,13 +4225,13 @@
         <v>27184</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="M8" s="7">
         <v>60</v>
@@ -4216,13 +4240,13 @@
         <v>67238</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4290,13 +4314,13 @@
         <v>6688</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -4305,13 +4329,13 @@
         <v>4003</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -4320,13 +4344,13 @@
         <v>10691</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4341,13 +4365,13 @@
         <v>17588</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="H11" s="7">
         <v>13</v>
@@ -4356,13 +4380,13 @@
         <v>13932</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M11" s="7">
         <v>31</v>
@@ -4371,13 +4395,13 @@
         <v>31521</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4445,13 +4469,13 @@
         <v>27188</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="H13" s="7">
         <v>31</v>
@@ -4460,13 +4484,13 @@
         <v>34236</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="M13" s="7">
         <v>56</v>
@@ -4475,13 +4499,13 @@
         <v>61423</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4496,13 +4520,13 @@
         <v>57166</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="H14" s="7">
         <v>23</v>
@@ -4511,13 +4535,13 @@
         <v>24451</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="M14" s="7">
         <v>78</v>
@@ -4526,13 +4550,13 @@
         <v>81618</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4600,13 +4624,13 @@
         <v>3008</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -4615,13 +4639,13 @@
         <v>7785</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -4630,13 +4654,13 @@
         <v>10792</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4651,13 +4675,13 @@
         <v>13161</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -4666,13 +4690,13 @@
         <v>3876</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="M17" s="7">
         <v>16</v>
@@ -4681,13 +4705,13 @@
         <v>17038</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4743,7 +4767,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4755,13 +4779,13 @@
         <v>9805</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -4770,13 +4794,13 @@
         <v>3775</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="M19" s="7">
         <v>13</v>
@@ -4785,13 +4809,13 @@
         <v>13580</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4806,13 +4830,13 @@
         <v>33575</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="H20" s="7">
         <v>11</v>
@@ -4821,13 +4845,13 @@
         <v>11409</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="M20" s="7">
         <v>44</v>
@@ -4836,13 +4860,13 @@
         <v>44984</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4898,7 +4922,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4910,13 +4934,13 @@
         <v>15194</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="H22" s="7">
         <v>19</v>
@@ -4925,13 +4949,13 @@
         <v>20142</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="M22" s="7">
         <v>33</v>
@@ -4940,13 +4964,13 @@
         <v>35336</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4961,13 +4985,13 @@
         <v>39236</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="H23" s="7">
         <v>25</v>
@@ -4976,13 +5000,13 @@
         <v>26238</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="M23" s="7">
         <v>63</v>
@@ -4991,13 +5015,13 @@
         <v>65474</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5053,7 +5077,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5065,13 +5089,13 @@
         <v>6125</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -5080,13 +5104,13 @@
         <v>10977</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="M25" s="7">
         <v>14</v>
@@ -5095,13 +5119,13 @@
         <v>17102</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5116,13 +5140,13 @@
         <v>40023</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="H26" s="7">
         <v>18</v>
@@ -5131,13 +5155,13 @@
         <v>19695</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="M26" s="7">
         <v>56</v>
@@ -5146,13 +5170,13 @@
         <v>59718</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5220,13 +5244,13 @@
         <v>84545</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="H28" s="7">
         <v>80</v>
@@ -5235,13 +5259,13 @@
         <v>88049</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="M28" s="7">
         <v>161</v>
@@ -5250,13 +5274,13 @@
         <v>172594</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5271,13 +5295,13 @@
         <v>240802</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="H29" s="7">
         <v>117</v>
@@ -5286,13 +5310,13 @@
         <v>126786</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="M29" s="7">
         <v>348</v>
@@ -5301,13 +5325,13 @@
         <v>367588</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5363,7 +5387,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -5387,7 +5411,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C411C23-CDE8-4237-93FA-79EB1367BDCD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BADF5E98-BA67-4E51-8A4F-BD6F835E8AF9}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5404,7 +5428,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5511,13 +5535,13 @@
         <v>19052</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="H4" s="7">
         <v>20</v>
@@ -5526,13 +5550,13 @@
         <v>20660</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="M4" s="7">
         <v>36</v>
@@ -5541,13 +5565,13 @@
         <v>39712</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5562,13 +5586,13 @@
         <v>39525</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="H5" s="7">
         <v>19</v>
@@ -5577,13 +5601,13 @@
         <v>20224</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="M5" s="7">
         <v>54</v>
@@ -5592,13 +5616,13 @@
         <v>59749</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5666,13 +5690,13 @@
         <v>26833</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="H7" s="7">
         <v>18</v>
@@ -5681,13 +5705,13 @@
         <v>18723</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="M7" s="7">
         <v>44</v>
@@ -5696,13 +5720,13 @@
         <v>45556</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5717,13 +5741,13 @@
         <v>55953</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="H8" s="7">
         <v>23</v>
@@ -5732,13 +5756,13 @@
         <v>23974</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="M8" s="7">
         <v>75</v>
@@ -5747,13 +5771,13 @@
         <v>79927</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5821,13 +5845,13 @@
         <v>2652</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>160</v>
+        <v>368</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -5836,13 +5860,13 @@
         <v>1803</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>74</v>
+        <v>369</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -5851,13 +5875,13 @@
         <v>4456</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5872,13 +5896,13 @@
         <v>18602</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>169</v>
+        <v>376</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="H11" s="7">
         <v>11</v>
@@ -5887,13 +5911,13 @@
         <v>10698</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>84</v>
+        <v>378</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="M11" s="7">
         <v>30</v>
@@ -5902,13 +5926,13 @@
         <v>29299</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5976,13 +6000,13 @@
         <v>13309</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="H13" s="7">
         <v>16</v>
@@ -5991,13 +6015,13 @@
         <v>16051</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="M13" s="7">
         <v>28</v>
@@ -6006,13 +6030,13 @@
         <v>29360</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6027,13 +6051,13 @@
         <v>19156</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="H14" s="7">
         <v>13</v>
@@ -6042,13 +6066,13 @@
         <v>13884</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="M14" s="7">
         <v>31</v>
@@ -6057,13 +6081,13 @@
         <v>33040</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6131,13 +6155,13 @@
         <v>6448</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -6146,13 +6170,13 @@
         <v>4004</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -6161,13 +6185,13 @@
         <v>10452</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6182,13 +6206,13 @@
         <v>8422</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -6197,13 +6221,13 @@
         <v>1767</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="M17" s="7">
         <v>10</v>
@@ -6212,13 +6236,13 @@
         <v>10189</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6274,7 +6298,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6286,13 +6310,13 @@
         <v>2976</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -6301,13 +6325,13 @@
         <v>3434</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="M19" s="7">
         <v>6</v>
@@ -6316,13 +6340,13 @@
         <v>6410</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6337,13 +6361,13 @@
         <v>19458</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -6352,13 +6376,13 @@
         <v>3993</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="M20" s="7">
         <v>23</v>
@@ -6367,13 +6391,13 @@
         <v>23450</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6429,7 +6453,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6441,13 +6465,13 @@
         <v>13148</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="H22" s="7">
         <v>20</v>
@@ -6456,13 +6480,13 @@
         <v>20927</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="M22" s="7">
         <v>32</v>
@@ -6471,13 +6495,13 @@
         <v>34075</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6492,13 +6516,13 @@
         <v>65194</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="H23" s="7">
         <v>32</v>
@@ -6507,13 +6531,13 @@
         <v>34755</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="M23" s="7">
         <v>89</v>
@@ -6522,13 +6546,13 @@
         <v>99949</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6584,7 +6608,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6596,13 +6620,13 @@
         <v>10646</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -6611,13 +6635,13 @@
         <v>3972</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="M25" s="7">
         <v>14</v>
@@ -6626,13 +6650,13 @@
         <v>14618</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>411</v>
+        <v>457</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6647,13 +6671,13 @@
         <v>28628</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="H26" s="7">
         <v>16</v>
@@ -6662,13 +6686,13 @@
         <v>17428</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="M26" s="7">
         <v>43</v>
@@ -6677,13 +6701,13 @@
         <v>46056</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>420</v>
+        <v>467</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6751,13 +6775,13 @@
         <v>95064</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="H28" s="7">
         <v>87</v>
@@ -6766,13 +6790,13 @@
         <v>89574</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="M28" s="7">
         <v>174</v>
@@ -6781,13 +6805,13 @@
         <v>184638</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6802,13 +6826,13 @@
         <v>254937</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="H29" s="7">
         <v>120</v>
@@ -6817,13 +6841,13 @@
         <v>126724</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="M29" s="7">
         <v>355</v>
@@ -6832,13 +6856,13 @@
         <v>381661</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6894,7 +6918,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -6918,7 +6942,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92678AA5-BD93-4CA5-AD2C-634970DF3D81}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F04E320-992A-4CE8-9CA5-5821F64492DB}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6935,7 +6959,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7042,13 +7066,13 @@
         <v>8134</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -7057,13 +7081,13 @@
         <v>6963</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="M4" s="7">
         <v>19</v>
@@ -7072,13 +7096,13 @@
         <v>15098</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7093,13 +7117,13 @@
         <v>12437</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="H5" s="7">
         <v>18</v>
@@ -7108,13 +7132,13 @@
         <v>7880</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="M5" s="7">
         <v>39</v>
@@ -7123,13 +7147,13 @@
         <v>20316</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7197,13 +7221,13 @@
         <v>8675</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="H7" s="7">
         <v>31</v>
@@ -7212,13 +7236,13 @@
         <v>27406</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="M7" s="7">
         <v>38</v>
@@ -7227,13 +7251,13 @@
         <v>36080</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7248,13 +7272,13 @@
         <v>37326</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="H8" s="7">
         <v>28</v>
@@ -7263,13 +7287,13 @@
         <v>21215</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="M8" s="7">
         <v>53</v>
@@ -7278,13 +7302,13 @@
         <v>58542</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7352,13 +7376,13 @@
         <v>2049</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -7367,13 +7391,13 @@
         <v>9520</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
@@ -7382,13 +7406,13 @@
         <v>11570</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7403,13 +7427,13 @@
         <v>48681</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="H11" s="7">
         <v>57</v>
@@ -7418,13 +7442,13 @@
         <v>39401</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="M11" s="7">
         <v>108</v>
@@ -7433,13 +7457,13 @@
         <v>88081</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>527</v>
+        <v>537</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7507,13 +7531,13 @@
         <v>16281</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>529</v>
+        <v>539</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>531</v>
+        <v>541</v>
       </c>
       <c r="H13" s="7">
         <v>25</v>
@@ -7522,13 +7546,13 @@
         <v>22169</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>533</v>
+        <v>543</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>329</v>
+        <v>97</v>
       </c>
       <c r="M13" s="7">
         <v>38</v>
@@ -7537,13 +7561,13 @@
         <v>38451</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>534</v>
+        <v>544</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7558,13 +7582,13 @@
         <v>25853</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>536</v>
+        <v>546</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>537</v>
+        <v>547</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>538</v>
+        <v>548</v>
       </c>
       <c r="H14" s="7">
         <v>40</v>
@@ -7573,13 +7597,13 @@
         <v>39990</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>338</v>
+        <v>105</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="M14" s="7">
         <v>59</v>
@@ -7588,13 +7612,13 @@
         <v>65842</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>541</v>
+        <v>551</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>542</v>
+        <v>552</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7662,13 +7686,13 @@
         <v>2845</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>543</v>
+        <v>553</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>544</v>
+        <v>554</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>545</v>
+        <v>555</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -7677,13 +7701,13 @@
         <v>1644</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>547</v>
+        <v>557</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>311</v>
+        <v>558</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -7692,13 +7716,13 @@
         <v>4489</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>548</v>
+        <v>559</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>550</v>
+        <v>468</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7713,13 +7737,13 @@
         <v>16597</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>552</v>
+        <v>562</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>553</v>
+        <v>563</v>
       </c>
       <c r="H17" s="7">
         <v>25</v>
@@ -7728,13 +7752,13 @@
         <v>10337</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>554</v>
+        <v>564</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>321</v>
+        <v>565</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>555</v>
+        <v>566</v>
       </c>
       <c r="M17" s="7">
         <v>48</v>
@@ -7743,13 +7767,13 @@
         <v>26933</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>556</v>
+        <v>567</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>557</v>
+        <v>477</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>558</v>
+        <v>568</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7805,7 +7829,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7817,13 +7841,13 @@
         <v>6495</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>559</v>
+        <v>569</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>560</v>
+        <v>570</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>561</v>
+        <v>571</v>
       </c>
       <c r="H19" s="7">
         <v>13</v>
@@ -7832,13 +7856,13 @@
         <v>8228</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>563</v>
+        <v>573</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>564</v>
+        <v>574</v>
       </c>
       <c r="M19" s="7">
         <v>20</v>
@@ -7847,13 +7871,13 @@
         <v>14724</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>565</v>
+        <v>575</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>566</v>
+        <v>576</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7868,13 +7892,13 @@
         <v>26211</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>569</v>
+        <v>579</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="H20" s="7">
         <v>37</v>
@@ -7883,13 +7907,13 @@
         <v>24243</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>571</v>
+        <v>581</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>572</v>
+        <v>582</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>573</v>
+        <v>583</v>
       </c>
       <c r="M20" s="7">
         <v>69</v>
@@ -7898,13 +7922,13 @@
         <v>50453</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>574</v>
+        <v>584</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>575</v>
+        <v>585</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>576</v>
+        <v>586</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7960,7 +7984,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7972,13 +7996,13 @@
         <v>18515</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>579</v>
+        <v>589</v>
       </c>
       <c r="H22" s="7">
         <v>41</v>
@@ -7987,13 +8011,13 @@
         <v>30083</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>580</v>
+        <v>590</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>581</v>
+        <v>591</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="M22" s="7">
         <v>60</v>
@@ -8002,13 +8026,13 @@
         <v>48598</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>583</v>
+        <v>593</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>585</v>
+        <v>595</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8023,13 +8047,13 @@
         <v>55862</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>588</v>
+        <v>598</v>
       </c>
       <c r="H23" s="7">
         <v>62</v>
@@ -8038,13 +8062,13 @@
         <v>44997</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="M23" s="7">
         <v>113</v>
@@ -8053,13 +8077,13 @@
         <v>100860</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>592</v>
+        <v>602</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>593</v>
+        <v>603</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>594</v>
+        <v>604</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8115,7 +8139,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8127,13 +8151,13 @@
         <v>15982</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>595</v>
+        <v>605</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>596</v>
+        <v>606</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>597</v>
+        <v>607</v>
       </c>
       <c r="H25" s="7">
         <v>13</v>
@@ -8142,13 +8166,13 @@
         <v>19388</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>598</v>
+        <v>608</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>599</v>
+        <v>609</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="M25" s="7">
         <v>28</v>
@@ -8157,13 +8181,13 @@
         <v>35370</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>601</v>
+        <v>611</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>602</v>
+        <v>612</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>603</v>
+        <v>613</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8178,13 +8202,13 @@
         <v>51074</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>604</v>
+        <v>614</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>605</v>
+        <v>615</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>606</v>
+        <v>616</v>
       </c>
       <c r="H26" s="7">
         <v>56</v>
@@ -8193,13 +8217,13 @@
         <v>47748</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>607</v>
+        <v>617</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>608</v>
+        <v>618</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>609</v>
+        <v>619</v>
       </c>
       <c r="M26" s="7">
         <v>98</v>
@@ -8208,13 +8232,13 @@
         <v>98821</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>610</v>
+        <v>620</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>611</v>
+        <v>621</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>612</v>
+        <v>622</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8282,13 +8306,13 @@
         <v>78977</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>613</v>
+        <v>623</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>615</v>
+        <v>625</v>
       </c>
       <c r="H28" s="7">
         <v>151</v>
@@ -8297,13 +8321,13 @@
         <v>125402</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>616</v>
+        <v>626</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>617</v>
+        <v>627</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>618</v>
+        <v>628</v>
       </c>
       <c r="M28" s="7">
         <v>225</v>
@@ -8312,13 +8336,13 @@
         <v>204379</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>619</v>
+        <v>629</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>621</v>
+        <v>348</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8333,13 +8357,13 @@
         <v>274041</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
       <c r="H29" s="7">
         <v>323</v>
@@ -8348,13 +8372,13 @@
         <v>235809</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="M29" s="7">
         <v>587</v>
@@ -8363,13 +8387,13 @@
         <v>509849</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>629</v>
+        <v>357</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8425,7 +8449,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6905-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6905-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B24BFA3-B583-4500-9707-2B8D859E7862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3606F59-D494-4FBB-B0D2-887D41BF3161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{62E5FB32-46A1-4F0C-A610-CA8CAD5C2C84}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AD2A50FC-5951-45EE-9A27-067BD39A0813}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="615">
   <si>
     <t>Población según si su trabajo le afecta de manera que tiene dolores de cabeza en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>42,47%</t>
   </si>
   <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>58,57%</t>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>58,97%</t>
   </si>
   <si>
     <t>64,09%</t>
   </si>
   <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
+    <t>45,3%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
   </si>
   <si>
     <t>51,13%</t>
   </si>
   <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>63,82%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>57,53%</t>
   </si>
   <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>73,6%</t>
   </si>
   <si>
     <t>35,91%</t>
   </si>
   <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>54,7%</t>
   </si>
   <si>
     <t>48,87%</t>
   </si>
   <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>60,74%</t>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>23,76%</t>
   </si>
   <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
   </si>
   <si>
     <t>26,43%</t>
   </si>
   <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
   </si>
   <si>
     <t>24,59%</t>
   </si>
   <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
   </si>
   <si>
     <t>76,24%</t>
   </si>
   <si>
-    <t>64,92%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
+    <t>63,8%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
   </si>
   <si>
     <t>73,57%</t>
   </si>
   <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
+    <t>57,07%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
   </si>
   <si>
     <t>75,41%</t>
   </si>
   <si>
-    <t>65,79%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
+    <t>65,02%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -197,55 +197,49 @@
     <t>25,52%</t>
   </si>
   <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
   </si>
   <si>
     <t>18,37%</t>
   </si>
   <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
+    <t>4,64%</t>
   </si>
   <si>
     <t>22,86%</t>
   </si>
   <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
   </si>
   <si>
     <t>74,48%</t>
   </si>
   <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
+    <t>57,54%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
   </si>
   <si>
     <t>81,63%</t>
   </si>
   <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
+    <t>95,36%</t>
   </si>
   <si>
     <t>77,14%</t>
   </si>
   <si>
-    <t>64,55%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -254,55 +248,55 @@
     <t>24,99%</t>
   </si>
   <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
   </si>
   <si>
     <t>32,12%</t>
   </si>
   <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>54,16%</t>
   </si>
   <si>
     <t>26,99%</t>
   </si>
   <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
   </si>
   <si>
     <t>75,01%</t>
   </si>
   <si>
-    <t>61,72%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
   </si>
   <si>
     <t>67,88%</t>
   </si>
   <si>
-    <t>48,49%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
   </si>
   <si>
     <t>73,01%</t>
   </si>
   <si>
-    <t>62,06%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -311,1389 +305,1341 @@
     <t>23,57%</t>
   </si>
   <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
   </si>
   <si>
     <t>56,41%</t>
   </si>
   <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
   </si>
   <si>
     <t>31,22%</t>
   </si>
   <si>
-    <t>17,02%</t>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>56,21%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>68,78%</t>
+  </si>
+  <si>
+    <t>51,62%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>46,86%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>62,88%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>67,27%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>61,96%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>60,93%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>67,29%</t>
+  </si>
+  <si>
+    <t>56,12%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>60,38%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>56,22%</t>
+  </si>
+  <si>
+    <t>72,89%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>65,68%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>56,72%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>60,96%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>69,96%</t>
+  </si>
+  <si>
+    <t>65,29%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
+  </si>
+  <si>
+    <t>66,49%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores de cabeza en 2012 (Tasa respuesta: 7,82%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>42,81%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>70,78%</t>
+  </si>
+  <si>
+    <t>57,19%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>63,45%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>51,5%</t>
+  </si>
+  <si>
+    <t>67,77%</t>
+  </si>
+  <si>
+    <t>56,67%</t>
+  </si>
+  <si>
+    <t>77,93%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>57,06%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>74,27%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>77,4%</t>
+  </si>
+  <si>
+    <t>63,44%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>65,24%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>46,05%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>56,57%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>64,95%</t>
+  </si>
+  <si>
+    <t>53,95%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>58,15%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>48,51%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>69,47%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>65,78%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>63,72%</t>
+  </si>
+  <si>
+    <t>72,0%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores de cabeza en 2016 (Tasa respuesta: 8,05%)</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
+  </si>
+  <si>
+    <t>67,47%</t>
+  </si>
+  <si>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>65,43%</t>
+  </si>
+  <si>
+    <t>60,07%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>56,15%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>54,71%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>68,52%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>70,56%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>46,38%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>65,3%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>69,37%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>72,41%</t>
+  </si>
+  <si>
+    <t>56,64%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>49,59%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>75,24%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>66,9%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>57,99%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>62,29%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>72,84%</t>
+  </si>
+  <si>
+    <t>67,85%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>51,95%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
+  </si>
+  <si>
+    <t>63,27%</t>
+  </si>
+  <si>
+    <t>71,42%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores de cabeza en 2023 (Tasa respuesta: 9,29%)</t>
+  </si>
+  <si>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>46,91%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>57,32%</t>
+  </si>
+  <si>
+    <t>60,46%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>53,09%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>57,37%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>62,78%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>61,87%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
   </si>
   <si>
     <t>50,8%</t>
   </si>
   <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>68,78%</t>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
+  </si>
+  <si>
+    <t>61,36%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>64,33%</t>
   </si>
   <si>
     <t>49,2%</t>
   </si>
   <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>46,86%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>62,22%</t>
-  </si>
-  <si>
-    <t>65,08%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>67,6%</t>
-  </si>
-  <si>
-    <t>53,14%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>60,14%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>55,04%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>67,29%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>60,38%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
-  </si>
-  <si>
-    <t>74,27%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>55,95%</t>
-  </si>
-  <si>
-    <t>73,2%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>56,34%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>63,95%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>56,72%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>61,07%</t>
-  </si>
-  <si>
-    <t>75,16%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>69,96%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>59,04%</t>
-  </si>
-  <si>
-    <t>52,13%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>66,49%</t>
-  </si>
-  <si>
-    <t>62,99%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores de cabeza en 2012 (Tasa respuesta: 7,82%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>70,78%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>62,86%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>51,89%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>77,68%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>58,34%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>67,77%</t>
-  </si>
-  <si>
-    <t>56,43%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>54,51%</t>
-  </si>
-  <si>
-    <t>57,06%</t>
-  </si>
-  <si>
-    <t>47,66%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>66,76%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>58,64%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>61,22%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>81,52%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>50,13%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>62,57%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>60,12%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>58,35%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>56,57%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
-  </si>
-  <si>
-    <t>64,95%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
-  </si>
-  <si>
-    <t>73,93%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>56,59%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>65,76%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>59,02%</t>
-  </si>
-  <si>
-    <t>52,02%</t>
-  </si>
-  <si>
-    <t>66,08%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
+    <t>81,32%</t>
   </si>
   <si>
     <t>63,13%</t>
   </si>
   <si>
-    <t>71,8%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores de cabeza en 2015 (Tasa respuesta: 8,05%)</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>47,58%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>66,23%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>67,47%</t>
-  </si>
-  <si>
-    <t>52,42%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>60,07%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>70,5%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>56,15%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>71,16%</t>
-  </si>
-  <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>54,49%</t>
-  </si>
-  <si>
-    <t>71,96%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>69,07%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>56,5%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>74,42%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>60,76%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>59,35%</t>
-  </si>
-  <si>
-    <t>59,0%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>64,27%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>40,65%</t>
-  </si>
-  <si>
-    <t>67,07%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>56,64%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>67,96%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>78,53%</t>
-  </si>
-  <si>
-    <t>59,59%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>73,15%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>50,52%</t>
-  </si>
-  <si>
-    <t>74,94%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>66,39%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>72,89%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>62,48%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>72,84%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>67,4%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>71,58%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores de cabeza en 2023 (Tasa respuesta: 9,29%)</t>
-  </si>
-  <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>57,32%</t>
-  </si>
-  <si>
-    <t>60,46%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>53,09%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
-  </si>
-  <si>
-    <t>57,37%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>50,6%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>62,78%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>58,25%</t>
-  </si>
-  <si>
-    <t>61,87%</t>
-  </si>
-  <si>
-    <t>49,4%</t>
-  </si>
-  <si>
-    <t>72,0%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>61,21%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>64,33%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
     <t>50,28%</t>
   </si>
   <si>
@@ -1703,9 +1649,6 @@
     <t>14,63%</t>
   </si>
   <si>
-    <t>4,64%</t>
-  </si>
-  <si>
     <t>35,44%</t>
   </si>
   <si>
@@ -1718,9 +1661,6 @@
     <t>34,25%</t>
   </si>
   <si>
-    <t>14,28%</t>
-  </si>
-  <si>
     <t>6,07%</t>
   </si>
   <si>
@@ -1730,9 +1670,6 @@
     <t>64,56%</t>
   </si>
   <si>
-    <t>95,36%</t>
-  </si>
-  <si>
     <t>86,28%</t>
   </si>
   <si>
@@ -1742,9 +1679,6 @@
     <t>96,28%</t>
   </si>
   <si>
-    <t>85,72%</t>
-  </si>
-  <si>
     <t>93,93%</t>
   </si>
   <si>
@@ -1919,9 +1853,6 @@
     <t>27,77%</t>
   </si>
   <si>
-    <t>34,72%</t>
-  </si>
-  <si>
     <t>29,17%</t>
   </si>
   <si>
@@ -1941,9 +1872,6 @@
   </si>
   <si>
     <t>82,73%</t>
-  </si>
-  <si>
-    <t>65,28%</t>
   </si>
   <si>
     <t>59,84%</t>
@@ -2367,7 +2295,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEF2E5B2-5DF7-42C7-A91F-CB0DC22490DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7397D1DC-3064-4D78-AB43-AA2175BDD1BB}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2822,7 +2750,7 @@
         <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -2831,13 +2759,13 @@
         <v>13334</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2852,13 +2780,13 @@
         <v>27272</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>18</v>
@@ -2867,13 +2795,13 @@
         <v>17733</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>45</v>
@@ -2882,13 +2810,13 @@
         <v>45005</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2944,7 +2872,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2956,13 +2884,13 @@
         <v>14575</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -2971,13 +2899,13 @@
         <v>7294</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>20</v>
@@ -2986,13 +2914,13 @@
         <v>21869</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3007,13 +2935,13 @@
         <v>43748</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>16</v>
@@ -3022,13 +2950,13 @@
         <v>15412</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>59</v>
@@ -3037,13 +2965,13 @@
         <v>59160</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3099,7 +3027,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3111,13 +3039,13 @@
         <v>5409</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -3126,13 +3054,13 @@
         <v>3932</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -3141,13 +3069,13 @@
         <v>9341</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3162,13 +3090,13 @@
         <v>17545</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -3177,13 +3105,13 @@
         <v>3038</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>19</v>
@@ -3192,13 +3120,13 @@
         <v>20584</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3254,7 +3182,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3266,13 +3194,13 @@
         <v>19592</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -3281,13 +3209,13 @@
         <v>9173</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>28</v>
@@ -3296,13 +3224,13 @@
         <v>28764</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3317,13 +3245,13 @@
         <v>22218</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -3332,13 +3260,13 @@
         <v>4921</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>26</v>
@@ -3347,13 +3275,13 @@
         <v>27139</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3409,7 +3337,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3421,13 +3349,13 @@
         <v>28934</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>17</v>
@@ -3436,13 +3364,13 @@
         <v>17250</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>44</v>
@@ -3451,13 +3379,13 @@
         <v>46185</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3472,13 +3400,13 @@
         <v>59514</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>26</v>
@@ -3487,13 +3415,13 @@
         <v>26285</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>83</v>
@@ -3502,13 +3430,13 @@
         <v>85798</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3564,7 +3492,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3576,13 +3504,13 @@
         <v>28639</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>21</v>
@@ -3591,13 +3519,13 @@
         <v>21545</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>51</v>
@@ -3606,13 +3534,13 @@
         <v>50184</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3627,13 +3555,13 @@
         <v>80276</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>26</v>
@@ -3642,13 +3570,13 @@
         <v>28241</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>106</v>
@@ -3657,13 +3585,13 @@
         <v>108517</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3731,13 +3659,13 @@
         <v>141892</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>88</v>
@@ -3746,13 +3674,13 @@
         <v>90168</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>219</v>
@@ -3761,13 +3689,13 @@
         <v>232061</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3782,13 +3710,13 @@
         <v>330413</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>127</v>
@@ -3797,13 +3725,13 @@
         <v>129953</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>446</v>
@@ -3812,13 +3740,13 @@
         <v>460366</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3874,7 +3802,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3898,7 +3826,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AE02AC4-5CE3-4791-B538-F6ACC8C700FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D19188C0-F461-4065-8A56-3FFA15E4E185}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3915,7 +3843,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4020,39 +3948,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4065,39 +3993,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4110,39 +4038,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4159,13 +4087,13 @@
         <v>16536</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -4174,13 +4102,13 @@
         <v>7131</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M7" s="7">
         <v>24</v>
@@ -4189,13 +4117,13 @@
         <v>23667</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>193</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4210,13 +4138,13 @@
         <v>40054</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H8" s="7">
         <v>24</v>
@@ -4225,13 +4153,13 @@
         <v>27184</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="M8" s="7">
         <v>60</v>
@@ -4240,13 +4168,13 @@
         <v>67238</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>201</v>
+        <v>19</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4314,13 +4242,13 @@
         <v>6688</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -4329,13 +4257,13 @@
         <v>4003</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -4344,13 +4272,13 @@
         <v>10691</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4365,13 +4293,13 @@
         <v>17588</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="H11" s="7">
         <v>13</v>
@@ -4380,13 +4308,13 @@
         <v>13932</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="M11" s="7">
         <v>31</v>
@@ -4395,13 +4323,13 @@
         <v>31521</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4457,7 +4385,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4469,13 +4397,13 @@
         <v>27188</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H13" s="7">
         <v>31</v>
@@ -4484,13 +4412,13 @@
         <v>34236</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="M13" s="7">
         <v>56</v>
@@ -4499,13 +4427,13 @@
         <v>61423</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4520,13 +4448,13 @@
         <v>57166</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H14" s="7">
         <v>23</v>
@@ -4535,13 +4463,13 @@
         <v>24451</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="M14" s="7">
         <v>78</v>
@@ -4550,13 +4478,13 @@
         <v>81618</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4612,7 +4540,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4624,13 +4552,13 @@
         <v>3008</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -4639,13 +4567,13 @@
         <v>7785</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -4654,13 +4582,13 @@
         <v>10792</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4675,13 +4603,13 @@
         <v>13161</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -4690,13 +4618,13 @@
         <v>3876</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="M17" s="7">
         <v>16</v>
@@ -4705,13 +4633,13 @@
         <v>17038</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4767,7 +4695,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4779,13 +4707,13 @@
         <v>9805</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -4794,13 +4722,13 @@
         <v>3775</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="M19" s="7">
         <v>13</v>
@@ -4809,13 +4737,13 @@
         <v>13580</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4830,13 +4758,13 @@
         <v>33575</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H20" s="7">
         <v>11</v>
@@ -4845,13 +4773,13 @@
         <v>11409</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="M20" s="7">
         <v>44</v>
@@ -4860,13 +4788,13 @@
         <v>44984</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4922,7 +4850,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4934,13 +4862,13 @@
         <v>15194</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="H22" s="7">
         <v>19</v>
@@ -4949,13 +4877,13 @@
         <v>20142</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="M22" s="7">
         <v>33</v>
@@ -4964,13 +4892,13 @@
         <v>35336</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>282</v>
+        <v>129</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4985,13 +4913,13 @@
         <v>39236</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="H23" s="7">
         <v>25</v>
@@ -5000,13 +4928,13 @@
         <v>26238</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="M23" s="7">
         <v>63</v>
@@ -5015,13 +4943,13 @@
         <v>65474</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>292</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5077,7 +5005,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5089,13 +5017,13 @@
         <v>6125</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -5104,13 +5032,13 @@
         <v>10977</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>296</v>
+        <v>58</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="M25" s="7">
         <v>14</v>
@@ -5119,13 +5047,13 @@
         <v>17102</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5140,13 +5068,13 @@
         <v>40023</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="H26" s="7">
         <v>18</v>
@@ -5155,13 +5083,13 @@
         <v>19695</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>305</v>
+        <v>65</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="M26" s="7">
         <v>56</v>
@@ -5170,13 +5098,13 @@
         <v>59718</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5244,13 +5172,13 @@
         <v>84545</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="H28" s="7">
         <v>80</v>
@@ -5259,13 +5187,13 @@
         <v>88049</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="M28" s="7">
         <v>161</v>
@@ -5274,13 +5202,13 @@
         <v>172594</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5295,13 +5223,13 @@
         <v>240802</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="H29" s="7">
         <v>117</v>
@@ -5310,13 +5238,13 @@
         <v>126786</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="M29" s="7">
         <v>348</v>
@@ -5325,13 +5253,13 @@
         <v>367588</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5387,7 +5315,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -5411,7 +5339,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BADF5E98-BA67-4E51-8A4F-BD6F835E8AF9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27EB95E9-6626-4BFE-A45B-D6118F3295D5}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5428,7 +5356,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5535,13 +5463,13 @@
         <v>19052</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="H4" s="7">
         <v>20</v>
@@ -5550,13 +5478,13 @@
         <v>20660</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="M4" s="7">
         <v>36</v>
@@ -5565,13 +5493,13 @@
         <v>39712</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5586,13 +5514,13 @@
         <v>39525</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="H5" s="7">
         <v>19</v>
@@ -5601,13 +5529,13 @@
         <v>20224</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="M5" s="7">
         <v>54</v>
@@ -5616,13 +5544,13 @@
         <v>59749</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5690,13 +5618,13 @@
         <v>26833</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="H7" s="7">
         <v>18</v>
@@ -5705,13 +5633,13 @@
         <v>18723</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="M7" s="7">
         <v>44</v>
@@ -5720,13 +5648,13 @@
         <v>45556</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5741,13 +5669,13 @@
         <v>55953</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="H8" s="7">
         <v>23</v>
@@ -5756,13 +5684,13 @@
         <v>23974</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="M8" s="7">
         <v>75</v>
@@ -5771,13 +5699,13 @@
         <v>79927</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5845,13 +5773,13 @@
         <v>2652</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -5860,13 +5788,13 @@
         <v>1803</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>369</v>
+        <v>100</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -5875,13 +5803,13 @@
         <v>4456</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5896,13 +5824,13 @@
         <v>18602</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="H11" s="7">
         <v>11</v>
@@ -5911,13 +5839,13 @@
         <v>10698</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>378</v>
+        <v>92</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="M11" s="7">
         <v>30</v>
@@ -5926,13 +5854,13 @@
         <v>29299</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5988,7 +5916,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -6000,13 +5928,13 @@
         <v>13309</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="H13" s="7">
         <v>16</v>
@@ -6015,13 +5943,13 @@
         <v>16051</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>216</v>
+        <v>375</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="M13" s="7">
         <v>28</v>
@@ -6030,13 +5958,13 @@
         <v>29360</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6051,13 +5979,13 @@
         <v>19156</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="H14" s="7">
         <v>13</v>
@@ -6066,13 +5994,13 @@
         <v>13884</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>208</v>
+        <v>384</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="M14" s="7">
         <v>31</v>
@@ -6081,13 +6009,13 @@
         <v>33040</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6143,7 +6071,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6155,13 +6083,13 @@
         <v>6448</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -6170,13 +6098,13 @@
         <v>4004</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -6185,13 +6113,13 @@
         <v>10452</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6206,13 +6134,13 @@
         <v>8422</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -6221,13 +6149,13 @@
         <v>1767</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="M17" s="7">
         <v>10</v>
@@ -6236,13 +6164,13 @@
         <v>10189</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6298,7 +6226,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6310,13 +6238,13 @@
         <v>2976</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -6325,13 +6253,13 @@
         <v>3434</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="M19" s="7">
         <v>6</v>
@@ -6340,13 +6268,13 @@
         <v>6410</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6361,13 +6289,13 @@
         <v>19458</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -6376,13 +6304,13 @@
         <v>3993</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="M20" s="7">
         <v>23</v>
@@ -6391,13 +6319,13 @@
         <v>23450</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6453,7 +6381,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6465,13 +6393,13 @@
         <v>13148</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="H22" s="7">
         <v>20</v>
@@ -6480,13 +6408,13 @@
         <v>20927</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="M22" s="7">
         <v>32</v>
@@ -6495,13 +6423,13 @@
         <v>34075</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6516,13 +6444,13 @@
         <v>65194</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="H23" s="7">
         <v>32</v>
@@ -6531,13 +6459,13 @@
         <v>34755</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="M23" s="7">
         <v>89</v>
@@ -6546,13 +6474,13 @@
         <v>99949</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6608,7 +6536,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6620,13 +6548,13 @@
         <v>10646</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>450</v>
+        <v>132</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>452</v>
+        <v>138</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -6635,13 +6563,13 @@
         <v>3972</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="M25" s="7">
         <v>14</v>
@@ -6650,13 +6578,13 @@
         <v>14618</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6671,13 +6599,13 @@
         <v>28628</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>459</v>
+        <v>142</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>460</v>
+        <v>130</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="H26" s="7">
         <v>16</v>
@@ -6686,13 +6614,13 @@
         <v>17428</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="M26" s="7">
         <v>43</v>
@@ -6701,13 +6629,13 @@
         <v>46056</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>467</v>
+        <v>453</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6775,13 +6703,13 @@
         <v>95064</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>470</v>
+        <v>456</v>
       </c>
       <c r="H28" s="7">
         <v>87</v>
@@ -6790,13 +6718,13 @@
         <v>89574</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>471</v>
+        <v>457</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>472</v>
+        <v>376</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="M28" s="7">
         <v>174</v>
@@ -6805,13 +6733,13 @@
         <v>184638</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6826,13 +6754,13 @@
         <v>254937</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="H29" s="7">
         <v>120</v>
@@ -6841,13 +6769,13 @@
         <v>126724</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>481</v>
+        <v>466</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>482</v>
+        <v>386</v>
       </c>
       <c r="M29" s="7">
         <v>355</v>
@@ -6856,13 +6784,13 @@
         <v>381661</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6918,7 +6846,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -6942,7 +6870,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F04E320-992A-4CE8-9CA5-5821F64492DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8667360-2C35-47A1-A3DC-49AF92F01CFE}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6959,7 +6887,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7066,13 +6994,13 @@
         <v>8134</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -7081,13 +7009,13 @@
         <v>6963</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="M4" s="7">
         <v>19</v>
@@ -7096,13 +7024,13 @@
         <v>15098</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>495</v>
+        <v>479</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7117,13 +7045,13 @@
         <v>12437</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="H5" s="7">
         <v>18</v>
@@ -7132,13 +7060,13 @@
         <v>7880</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>499</v>
+        <v>483</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="M5" s="7">
         <v>39</v>
@@ -7147,13 +7075,13 @@
         <v>20316</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>502</v>
+        <v>486</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>503</v>
+        <v>487</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>504</v>
+        <v>488</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7221,13 +7149,13 @@
         <v>8675</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>505</v>
+        <v>489</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>506</v>
+        <v>490</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>507</v>
+        <v>491</v>
       </c>
       <c r="H7" s="7">
         <v>31</v>
@@ -7236,13 +7164,13 @@
         <v>27406</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>508</v>
+        <v>492</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>509</v>
+        <v>493</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>510</v>
+        <v>158</v>
       </c>
       <c r="M7" s="7">
         <v>38</v>
@@ -7251,13 +7179,13 @@
         <v>36080</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>511</v>
+        <v>494</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>512</v>
+        <v>308</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>513</v>
+        <v>495</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7272,13 +7200,13 @@
         <v>37326</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>514</v>
+        <v>496</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>515</v>
+        <v>497</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>516</v>
+        <v>498</v>
       </c>
       <c r="H8" s="7">
         <v>28</v>
@@ -7287,13 +7215,13 @@
         <v>21215</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>517</v>
+        <v>499</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>518</v>
+        <v>148</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>519</v>
+        <v>500</v>
       </c>
       <c r="M8" s="7">
         <v>53</v>
@@ -7302,13 +7230,13 @@
         <v>58542</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>520</v>
+        <v>501</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>521</v>
+        <v>502</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>522</v>
+        <v>318</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7376,13 +7304,13 @@
         <v>2049</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>523</v>
+        <v>503</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>524</v>
+        <v>504</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -7391,13 +7319,13 @@
         <v>9520</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>525</v>
+        <v>505</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>526</v>
+        <v>506</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>527</v>
+        <v>507</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
@@ -7406,13 +7334,13 @@
         <v>11570</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>528</v>
+        <v>508</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>529</v>
+        <v>509</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>530</v>
+        <v>510</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7427,13 +7355,13 @@
         <v>48681</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>531</v>
+        <v>511</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>532</v>
+        <v>512</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="H11" s="7">
         <v>57</v>
@@ -7442,13 +7370,13 @@
         <v>39401</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>533</v>
+        <v>513</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>534</v>
+        <v>514</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>535</v>
+        <v>515</v>
       </c>
       <c r="M11" s="7">
         <v>108</v>
@@ -7457,13 +7385,13 @@
         <v>88081</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>536</v>
+        <v>516</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>537</v>
+        <v>517</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>538</v>
+        <v>518</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7519,7 +7447,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -7531,13 +7459,13 @@
         <v>16281</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>539</v>
+        <v>519</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>540</v>
+        <v>520</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>541</v>
+        <v>367</v>
       </c>
       <c r="H13" s="7">
         <v>25</v>
@@ -7546,13 +7474,13 @@
         <v>22169</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>542</v>
+        <v>521</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>543</v>
+        <v>522</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>97</v>
+        <v>523</v>
       </c>
       <c r="M13" s="7">
         <v>38</v>
@@ -7561,13 +7489,13 @@
         <v>38451</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>319</v>
+        <v>524</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>544</v>
+        <v>525</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7582,13 +7510,13 @@
         <v>25853</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>547</v>
+        <v>360</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>548</v>
+        <v>528</v>
       </c>
       <c r="H14" s="7">
         <v>40</v>
@@ -7597,13 +7525,13 @@
         <v>39990</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>549</v>
+        <v>529</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>105</v>
+        <v>530</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>550</v>
+        <v>531</v>
       </c>
       <c r="M14" s="7">
         <v>59</v>
@@ -7612,13 +7540,13 @@
         <v>65842</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>327</v>
+        <v>532</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>551</v>
+        <v>533</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>552</v>
+        <v>534</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7674,7 +7602,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7686,13 +7614,13 @@
         <v>2845</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>553</v>
+        <v>535</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>554</v>
+        <v>55</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>555</v>
+        <v>536</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -7701,13 +7629,13 @@
         <v>1644</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>556</v>
+        <v>537</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>557</v>
+        <v>538</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -7716,13 +7644,13 @@
         <v>4489</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>559</v>
+        <v>69</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>560</v>
+        <v>540</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7737,13 +7665,13 @@
         <v>16597</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>561</v>
+        <v>541</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>562</v>
+        <v>542</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>563</v>
+        <v>63</v>
       </c>
       <c r="H17" s="7">
         <v>25</v>
@@ -7752,13 +7680,13 @@
         <v>10337</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>564</v>
+        <v>543</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>565</v>
+        <v>544</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>566</v>
+        <v>545</v>
       </c>
       <c r="M17" s="7">
         <v>48</v>
@@ -7767,13 +7695,13 @@
         <v>26933</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>567</v>
+        <v>79</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>568</v>
+        <v>546</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7829,7 +7757,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7841,13 +7769,13 @@
         <v>6495</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>569</v>
+        <v>547</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>570</v>
+        <v>548</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>571</v>
+        <v>549</v>
       </c>
       <c r="H19" s="7">
         <v>13</v>
@@ -7856,13 +7784,13 @@
         <v>8228</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>572</v>
+        <v>550</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>573</v>
+        <v>551</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>574</v>
+        <v>552</v>
       </c>
       <c r="M19" s="7">
         <v>20</v>
@@ -7871,13 +7799,13 @@
         <v>14724</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>575</v>
+        <v>553</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>576</v>
+        <v>554</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>577</v>
+        <v>555</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7892,13 +7820,13 @@
         <v>26211</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>578</v>
+        <v>556</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>579</v>
+        <v>557</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>580</v>
+        <v>558</v>
       </c>
       <c r="H20" s="7">
         <v>37</v>
@@ -7907,13 +7835,13 @@
         <v>24243</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>581</v>
+        <v>559</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>582</v>
+        <v>560</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>583</v>
+        <v>561</v>
       </c>
       <c r="M20" s="7">
         <v>69</v>
@@ -7922,13 +7850,13 @@
         <v>50453</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>584</v>
+        <v>562</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>585</v>
+        <v>563</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>586</v>
+        <v>564</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7984,7 +7912,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7996,13 +7924,13 @@
         <v>18515</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>587</v>
+        <v>565</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>588</v>
+        <v>566</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>589</v>
+        <v>567</v>
       </c>
       <c r="H22" s="7">
         <v>41</v>
@@ -8011,13 +7939,13 @@
         <v>30083</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>590</v>
+        <v>568</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>591</v>
+        <v>569</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>592</v>
+        <v>570</v>
       </c>
       <c r="M22" s="7">
         <v>60</v>
@@ -8026,13 +7954,13 @@
         <v>48598</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>593</v>
+        <v>571</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>594</v>
+        <v>572</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>595</v>
+        <v>573</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8047,13 +7975,13 @@
         <v>55862</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>596</v>
+        <v>574</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>597</v>
+        <v>575</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>598</v>
+        <v>576</v>
       </c>
       <c r="H23" s="7">
         <v>62</v>
@@ -8062,13 +7990,13 @@
         <v>44997</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>599</v>
+        <v>577</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>600</v>
+        <v>578</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>601</v>
+        <v>579</v>
       </c>
       <c r="M23" s="7">
         <v>113</v>
@@ -8077,13 +8005,13 @@
         <v>100860</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>602</v>
+        <v>580</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>603</v>
+        <v>581</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>604</v>
+        <v>582</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8139,7 +8067,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8151,13 +8079,13 @@
         <v>15982</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>605</v>
+        <v>583</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>606</v>
+        <v>584</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>607</v>
+        <v>585</v>
       </c>
       <c r="H25" s="7">
         <v>13</v>
@@ -8166,13 +8094,13 @@
         <v>19388</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>608</v>
+        <v>586</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>609</v>
+        <v>587</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>610</v>
+        <v>588</v>
       </c>
       <c r="M25" s="7">
         <v>28</v>
@@ -8181,13 +8109,13 @@
         <v>35370</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>611</v>
+        <v>589</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>612</v>
+        <v>590</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>613</v>
+        <v>591</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8202,13 +8130,13 @@
         <v>51074</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>614</v>
+        <v>592</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>615</v>
+        <v>593</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>616</v>
+        <v>594</v>
       </c>
       <c r="H26" s="7">
         <v>56</v>
@@ -8217,13 +8145,13 @@
         <v>47748</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>617</v>
+        <v>595</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>618</v>
+        <v>596</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>619</v>
+        <v>597</v>
       </c>
       <c r="M26" s="7">
         <v>98</v>
@@ -8232,13 +8160,13 @@
         <v>98821</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>620</v>
+        <v>598</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>621</v>
+        <v>599</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>622</v>
+        <v>600</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8306,13 +8234,13 @@
         <v>78977</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>623</v>
+        <v>601</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>624</v>
+        <v>602</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>625</v>
+        <v>603</v>
       </c>
       <c r="H28" s="7">
         <v>151</v>
@@ -8321,13 +8249,13 @@
         <v>125402</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>626</v>
+        <v>166</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>627</v>
+        <v>604</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>628</v>
+        <v>605</v>
       </c>
       <c r="M28" s="7">
         <v>225</v>
@@ -8336,13 +8264,13 @@
         <v>204379</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>629</v>
+        <v>606</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>630</v>
+        <v>607</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8357,13 +8285,13 @@
         <v>274041</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>631</v>
+        <v>608</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>632</v>
+        <v>609</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>633</v>
+        <v>610</v>
       </c>
       <c r="H29" s="7">
         <v>323</v>
@@ -8372,13 +8300,13 @@
         <v>235809</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>634</v>
+        <v>176</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>635</v>
+        <v>611</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>636</v>
+        <v>612</v>
       </c>
       <c r="M29" s="7">
         <v>587</v>
@@ -8387,13 +8315,13 @@
         <v>509849</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>637</v>
+        <v>613</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>638</v>
+        <v>614</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8449,7 +8377,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6905-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6905-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3606F59-D494-4FBB-B0D2-887D41BF3161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{60366B2F-CBCA-48B9-8F5A-8A232076F5D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AD2A50FC-5951-45EE-9A27-067BD39A0813}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AC2BFE8B-6370-428C-8581-A45EE77F7739}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="631">
   <si>
     <t>Población según si su trabajo le afecta de manera que tiene dolores de cabeza en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -71,1819 +71,1867 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>42,47%</t>
   </si>
   <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>64,09%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>80,58%</t>
+  </si>
+  <si>
+    <t>51,13%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>64,04%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>57,53%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>72,98%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>60,89%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>73,57%</t>
+  </si>
+  <si>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>74,48%</t>
+  </si>
+  <si>
+    <t>56,1%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>53,83%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>67,88%</t>
+  </si>
+  <si>
+    <t>46,17%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>61,33%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>55,67%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>68,78%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>46,86%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>62,52%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>68,08%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>63,87%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>62,09%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>56,11%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>67,29%</t>
+  </si>
+  <si>
+    <t>56,05%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>60,38%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>56,33%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>57,71%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>56,72%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>69,79%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>60,97%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>69,96%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
+  </si>
+  <si>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>51,95%</t>
+  </si>
+  <si>
+    <t>65,88%</t>
+  </si>
+  <si>
+    <t>66,49%</t>
+  </si>
+  <si>
+    <t>62,98%</t>
+  </si>
+  <si>
+    <t>70,2%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores de cabeza en 2012 (Tasa respuesta: 7,82%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>70,78%</t>
+  </si>
+  <si>
+    <t>57,39%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>62,86%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>46,38%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>51,89%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>60,69%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>52,34%</t>
+  </si>
+  <si>
+    <t>67,77%</t>
+  </si>
+  <si>
+    <t>56,43%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>57,06%</t>
+  </si>
+  <si>
+    <t>47,66%</t>
+  </si>
+  <si>
+    <t>65,19%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>58,64%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>50,13%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>77,4%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>49,87%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>60,12%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>58,35%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>56,57%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
+  </si>
+  <si>
+    <t>64,95%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>56,59%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
+  </si>
+  <si>
+    <t>66,08%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>63,13%</t>
+  </si>
+  <si>
+    <t>71,8%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores de cabeza en 2016 (Tasa respuesta: 8,05%)</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>65,98%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>50,14%</t>
+  </si>
+  <si>
+    <t>67,47%</t>
+  </si>
+  <si>
+    <t>53,11%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>64,4%</t>
+  </si>
+  <si>
+    <t>60,07%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>69,75%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>59,39%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>56,15%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>71,17%</t>
+  </si>
+  <si>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>57,99%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>59,92%</t>
+  </si>
+  <si>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>64,28%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>65,58%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>69,37%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>56,64%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>71,56%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>59,14%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
     <t>26,4%</t>
   </si>
   <si>
-    <t>58,97%</t>
-  </si>
-  <si>
-    <t>64,09%</t>
-  </si>
-  <si>
-    <t>45,3%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>51,13%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>63,82%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>57,53%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
   </si>
   <si>
     <t>73,6%</t>
   </si>
   <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>54,7%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>76,24%</t>
-  </si>
-  <si>
-    <t>63,8%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>73,57%</t>
-  </si>
-  <si>
-    <t>57,07%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>65,02%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>74,48%</t>
-  </si>
-  <si>
-    <t>57,54%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>24,99%</t>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>66,37%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>41,21%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>72,89%</t>
+  </si>
+  <si>
+    <t>58,79%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>57,57%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>62,78%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>72,84%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>65,04%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores de cabeza en 2023 (Tasa respuesta: 9,29%)</t>
+  </si>
+  <si>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>60,7%</t>
+  </si>
+  <si>
+    <t>46,91%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>66,25%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>60,46%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>53,09%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
+  </si>
+  <si>
+    <t>57,37%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>70,3%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>69,81%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>61,37%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>61,87%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>48,32%</t>
+  </si>
+  <si>
+    <t>61,36%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>64,33%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>76,34%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
   </si>
   <si>
     <t>14,28%</t>
   </si>
   <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>68,37%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
   </si>
   <si>
     <t>85,72%</t>
   </si>
   <si>
-    <t>67,88%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>56,21%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>68,78%</t>
-  </si>
-  <si>
-    <t>51,62%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>46,86%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>65,08%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>53,14%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>67,27%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>61,96%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>60,93%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>55,77%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>67,29%</t>
-  </si>
-  <si>
-    <t>56,12%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>60,38%</t>
-  </si>
-  <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>56,22%</t>
-  </si>
-  <si>
-    <t>72,89%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>65,68%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>56,72%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>60,96%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>67,5%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>59,93%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>67,48%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>55,1%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>63,6%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>71,12%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
   </si>
   <si>
     <t>34,72%</t>
   </si>
   <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>69,96%</t>
-  </si>
-  <si>
-    <t>65,29%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>59,04%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
   </si>
   <si>
     <t>65,28%</t>
   </si>
   <si>
-    <t>66,49%</t>
-  </si>
-  <si>
-    <t>63,07%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores de cabeza en 2012 (Tasa respuesta: 7,82%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>42,81%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>70,78%</t>
-  </si>
-  <si>
-    <t>57,19%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>63,45%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>52,02%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>77,68%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>60,44%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>58,34%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>51,5%</t>
-  </si>
-  <si>
-    <t>67,77%</t>
-  </si>
-  <si>
-    <t>56,67%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>57,06%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>66,76%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>53,46%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>74,27%</t>
-  </si>
-  <si>
-    <t>61,22%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>63,44%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>65,24%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>46,05%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>56,57%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>64,95%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>66,55%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>48,51%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>59,02%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>65,78%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>63,72%</t>
-  </si>
-  <si>
-    <t>72,0%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores de cabeza en 2016 (Tasa respuesta: 8,05%)</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>51,18%</t>
-  </si>
-  <si>
-    <t>67,47%</t>
-  </si>
-  <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>65,43%</t>
-  </si>
-  <si>
-    <t>60,07%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
-  </si>
-  <si>
-    <t>70,49%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>56,15%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>68,52%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>61,21%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>72,29%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>60,76%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>70,56%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>59,0%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>65,3%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>65,15%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>72,41%</t>
-  </si>
-  <si>
-    <t>56,64%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>78,53%</t>
-  </si>
-  <si>
-    <t>61,45%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>49,59%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>50,41%</t>
-  </si>
-  <si>
-    <t>75,24%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>66,9%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>57,99%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>62,29%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>72,84%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>51,95%</t>
-  </si>
-  <si>
-    <t>67,4%</t>
-  </si>
-  <si>
-    <t>63,27%</t>
-  </si>
-  <si>
-    <t>71,42%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores de cabeza en 2023 (Tasa respuesta: 9,29%)</t>
-  </si>
-  <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>57,32%</t>
-  </si>
-  <si>
-    <t>60,46%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>53,09%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
-  </si>
-  <si>
-    <t>57,37%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>50,6%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>62,78%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>58,25%</t>
-  </si>
-  <si>
-    <t>61,87%</t>
-  </si>
-  <si>
-    <t>49,4%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>64,33%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>63,13%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>64,56%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>65,75%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>65,5%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>61,24%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>49,85%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>75,11%</t>
-  </si>
-  <si>
-    <t>62,73%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>59,93%</t>
-  </si>
-  <si>
-    <t>50,15%</t>
+    <t>59,44%</t>
   </si>
   <si>
     <t>70,34%</t>
   </si>
   <si>
-    <t>67,48%</t>
-  </si>
-  <si>
-    <t>59,81%</t>
-  </si>
-  <si>
-    <t>75,44%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>63,39%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>71,12%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>59,75%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>72,23%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>59,84%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
-  </si>
-  <si>
     <t>71,38%</t>
   </si>
   <si>
-    <t>75,36%</t>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>74,7%</t>
   </si>
 </sst>
 </file>
@@ -2295,7 +2343,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7397D1DC-3064-4D78-AB43-AA2175BDD1BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F86DF770-7828-441A-A86D-21AD5ADF8FB0}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2750,7 +2798,7 @@
         <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -2759,13 +2807,13 @@
         <v>13334</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2780,13 +2828,13 @@
         <v>27272</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>18</v>
@@ -2795,13 +2843,13 @@
         <v>17733</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>45</v>
@@ -2810,13 +2858,13 @@
         <v>45005</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2872,7 +2920,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2884,13 +2932,13 @@
         <v>14575</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -2899,13 +2947,13 @@
         <v>7294</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>20</v>
@@ -2914,13 +2962,13 @@
         <v>21869</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2935,13 +2983,13 @@
         <v>43748</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>16</v>
@@ -2950,13 +2998,13 @@
         <v>15412</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>59</v>
@@ -2965,13 +3013,13 @@
         <v>59160</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3027,7 +3075,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3039,13 +3087,13 @@
         <v>5409</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -3054,13 +3102,13 @@
         <v>3932</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -3069,13 +3117,13 @@
         <v>9341</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3090,13 +3138,13 @@
         <v>17545</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -3105,10 +3153,10 @@
         <v>3038</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>101</v>
@@ -3510,7 +3558,7 @@
         <v>145</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>146</v>
+        <v>24</v>
       </c>
       <c r="H25" s="7">
         <v>21</v>
@@ -3519,13 +3567,13 @@
         <v>21545</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M25" s="7">
         <v>51</v>
@@ -3534,13 +3582,13 @@
         <v>50184</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3555,13 +3603,13 @@
         <v>80276</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H26" s="7">
         <v>26</v>
@@ -3570,13 +3618,13 @@
         <v>28241</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M26" s="7">
         <v>106</v>
@@ -3585,13 +3633,13 @@
         <v>108517</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3659,13 +3707,13 @@
         <v>141892</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H28" s="7">
         <v>88</v>
@@ -3674,13 +3722,13 @@
         <v>90168</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M28" s="7">
         <v>219</v>
@@ -3689,13 +3737,13 @@
         <v>232061</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3710,13 +3758,13 @@
         <v>330413</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H29" s="7">
         <v>127</v>
@@ -3725,13 +3773,13 @@
         <v>129953</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M29" s="7">
         <v>446</v>
@@ -3740,13 +3788,13 @@
         <v>460366</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3802,7 +3850,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3826,7 +3874,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D19188C0-F461-4065-8A56-3FFA15E4E185}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C33001A8-7859-4DDF-9F68-7D43A5E2182D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3843,7 +3891,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3948,39 +3996,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3993,39 +4041,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4038,39 +4086,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4087,13 +4135,13 @@
         <v>16536</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -4102,13 +4150,13 @@
         <v>7131</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M7" s="7">
         <v>24</v>
@@ -4117,13 +4165,13 @@
         <v>23667</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4138,13 +4186,13 @@
         <v>40054</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H8" s="7">
         <v>24</v>
@@ -4153,13 +4201,13 @@
         <v>27184</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M8" s="7">
         <v>60</v>
@@ -4168,10 +4216,10 @@
         <v>67238</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>198</v>
@@ -4385,7 +4433,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4540,7 +4588,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4895,10 +4943,10 @@
         <v>277</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>129</v>
+        <v>278</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4913,13 +4961,13 @@
         <v>39236</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H23" s="7">
         <v>25</v>
@@ -4928,13 +4976,13 @@
         <v>26238</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M23" s="7">
         <v>63</v>
@@ -4943,13 +4991,13 @@
         <v>65474</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>139</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5017,13 +5065,13 @@
         <v>6125</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -5032,13 +5080,13 @@
         <v>10977</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>58</v>
+        <v>292</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="M25" s="7">
         <v>14</v>
@@ -5047,13 +5095,13 @@
         <v>17102</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5068,13 +5116,13 @@
         <v>40023</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="H26" s="7">
         <v>18</v>
@@ -5083,13 +5131,13 @@
         <v>19695</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>65</v>
+        <v>301</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="M26" s="7">
         <v>56</v>
@@ -5098,13 +5146,13 @@
         <v>59718</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5172,13 +5220,13 @@
         <v>84545</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="H28" s="7">
         <v>80</v>
@@ -5187,13 +5235,13 @@
         <v>88049</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="M28" s="7">
         <v>161</v>
@@ -5202,13 +5250,13 @@
         <v>172594</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5223,13 +5271,13 @@
         <v>240802</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="H29" s="7">
         <v>117</v>
@@ -5238,13 +5286,13 @@
         <v>126786</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="M29" s="7">
         <v>348</v>
@@ -5253,13 +5301,13 @@
         <v>367588</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5315,7 +5363,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -5339,7 +5387,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27EB95E9-6626-4BFE-A45B-D6118F3295D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{258CE321-0EF6-4373-829F-5E3BBD9F0C92}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5356,7 +5404,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5463,13 +5511,13 @@
         <v>19052</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="H4" s="7">
         <v>20</v>
@@ -5478,13 +5526,13 @@
         <v>20660</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="M4" s="7">
         <v>36</v>
@@ -5493,13 +5541,13 @@
         <v>39712</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5514,13 +5562,13 @@
         <v>39525</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="H5" s="7">
         <v>19</v>
@@ -5529,13 +5577,13 @@
         <v>20224</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="M5" s="7">
         <v>54</v>
@@ -5544,13 +5592,13 @@
         <v>59749</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5618,13 +5666,13 @@
         <v>26833</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="H7" s="7">
         <v>18</v>
@@ -5633,13 +5681,13 @@
         <v>18723</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="M7" s="7">
         <v>44</v>
@@ -5648,13 +5696,13 @@
         <v>45556</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5669,13 +5717,13 @@
         <v>55953</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="H8" s="7">
         <v>23</v>
@@ -5684,13 +5732,13 @@
         <v>23974</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="M8" s="7">
         <v>75</v>
@@ -5699,13 +5747,13 @@
         <v>79927</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5773,13 +5821,13 @@
         <v>2652</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>358</v>
+        <v>160</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -5788,13 +5836,13 @@
         <v>1803</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -5803,13 +5851,13 @@
         <v>4456</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5824,13 +5872,13 @@
         <v>18602</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>365</v>
+        <v>169</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="H11" s="7">
         <v>11</v>
@@ -5839,13 +5887,13 @@
         <v>10698</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="M11" s="7">
         <v>30</v>
@@ -5854,13 +5902,13 @@
         <v>29299</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5916,7 +5964,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5928,13 +5976,13 @@
         <v>13309</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="H13" s="7">
         <v>16</v>
@@ -5943,13 +5991,13 @@
         <v>16051</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>375</v>
+        <v>212</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="M13" s="7">
         <v>28</v>
@@ -5958,13 +6006,13 @@
         <v>29360</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5979,13 +6027,13 @@
         <v>19156</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="H14" s="7">
         <v>13</v>
@@ -5994,13 +6042,13 @@
         <v>13884</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>384</v>
+        <v>204</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="M14" s="7">
         <v>31</v>
@@ -6009,13 +6057,13 @@
         <v>33040</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6071,7 +6119,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6083,13 +6131,13 @@
         <v>6448</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -6098,13 +6146,13 @@
         <v>4004</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -6113,13 +6161,13 @@
         <v>10452</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6134,13 +6182,13 @@
         <v>8422</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -6149,13 +6197,13 @@
         <v>1767</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="M17" s="7">
         <v>10</v>
@@ -6164,13 +6212,13 @@
         <v>10189</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6238,13 +6286,13 @@
         <v>2976</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -6253,13 +6301,13 @@
         <v>3434</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M19" s="7">
         <v>6</v>
@@ -6268,13 +6316,13 @@
         <v>6410</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6289,13 +6337,13 @@
         <v>19458</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -6304,13 +6352,13 @@
         <v>3993</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="M20" s="7">
         <v>23</v>
@@ -6319,13 +6367,13 @@
         <v>23450</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6393,13 +6441,13 @@
         <v>13148</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="H22" s="7">
         <v>20</v>
@@ -6408,13 +6456,13 @@
         <v>20927</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="M22" s="7">
         <v>32</v>
@@ -6423,13 +6471,13 @@
         <v>34075</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6444,13 +6492,13 @@
         <v>65194</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="H23" s="7">
         <v>32</v>
@@ -6459,13 +6507,13 @@
         <v>34755</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="M23" s="7">
         <v>89</v>
@@ -6474,13 +6522,13 @@
         <v>99949</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6548,13 +6596,13 @@
         <v>10646</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>132</v>
+        <v>442</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>138</v>
+        <v>444</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -6563,13 +6611,13 @@
         <v>3972</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="M25" s="7">
         <v>14</v>
@@ -6578,13 +6626,13 @@
         <v>14618</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>445</v>
+        <v>411</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6599,13 +6647,13 @@
         <v>28628</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>142</v>
+        <v>450</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>130</v>
+        <v>451</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="H26" s="7">
         <v>16</v>
@@ -6614,13 +6662,13 @@
         <v>17428</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="M26" s="7">
         <v>43</v>
@@ -6629,13 +6677,13 @@
         <v>46056</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>453</v>
+        <v>420</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6703,13 +6751,13 @@
         <v>95064</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="H28" s="7">
         <v>87</v>
@@ -6718,13 +6766,13 @@
         <v>89574</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>376</v>
+        <v>462</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="M28" s="7">
         <v>174</v>
@@ -6733,13 +6781,13 @@
         <v>184638</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6754,13 +6802,13 @@
         <v>254937</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="H29" s="7">
         <v>120</v>
@@ -6769,13 +6817,13 @@
         <v>126724</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>386</v>
+        <v>472</v>
       </c>
       <c r="M29" s="7">
         <v>355</v>
@@ -6784,13 +6832,13 @@
         <v>381661</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6846,7 +6894,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -6870,7 +6918,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8667360-2C35-47A1-A3DC-49AF92F01CFE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{015B240E-18BD-41C4-9D88-BB2410F8FE96}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6887,7 +6935,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6994,13 +7042,13 @@
         <v>8134</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -7009,13 +7057,13 @@
         <v>6963</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="M4" s="7">
         <v>19</v>
@@ -7024,13 +7072,13 @@
         <v>15098</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7045,13 +7093,13 @@
         <v>12437</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="H5" s="7">
         <v>18</v>
@@ -7060,13 +7108,13 @@
         <v>7880</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="M5" s="7">
         <v>39</v>
@@ -7075,13 +7123,13 @@
         <v>20316</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7149,13 +7197,13 @@
         <v>8675</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="H7" s="7">
         <v>31</v>
@@ -7164,13 +7212,13 @@
         <v>27406</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>158</v>
+        <v>500</v>
       </c>
       <c r="M7" s="7">
         <v>38</v>
@@ -7179,13 +7227,13 @@
         <v>36080</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>308</v>
+        <v>502</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7200,13 +7248,13 @@
         <v>37326</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="H8" s="7">
         <v>28</v>
@@ -7215,13 +7263,13 @@
         <v>21215</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>148</v>
+        <v>508</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="M8" s="7">
         <v>53</v>
@@ -7230,13 +7278,13 @@
         <v>58542</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>318</v>
+        <v>512</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7304,13 +7352,13 @@
         <v>2049</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -7319,13 +7367,13 @@
         <v>9520</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
@@ -7334,13 +7382,13 @@
         <v>11570</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7355,13 +7403,13 @@
         <v>48681</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="H11" s="7">
         <v>57</v>
@@ -7370,13 +7418,13 @@
         <v>39401</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="M11" s="7">
         <v>108</v>
@@ -7385,13 +7433,13 @@
         <v>88081</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7447,7 +7495,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -7459,13 +7507,13 @@
         <v>16281</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>367</v>
+        <v>531</v>
       </c>
       <c r="H13" s="7">
         <v>25</v>
@@ -7474,13 +7522,13 @@
         <v>22169</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>521</v>
+        <v>532</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>522</v>
+        <v>533</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>523</v>
+        <v>329</v>
       </c>
       <c r="M13" s="7">
         <v>38</v>
@@ -7489,13 +7537,13 @@
         <v>38451</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>524</v>
+        <v>315</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7510,13 +7558,13 @@
         <v>25853</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>360</v>
+        <v>537</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="H14" s="7">
         <v>40</v>
@@ -7525,13 +7573,13 @@
         <v>39990</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>529</v>
+        <v>539</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>530</v>
+        <v>338</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="M14" s="7">
         <v>59</v>
@@ -7540,13 +7588,13 @@
         <v>65842</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>532</v>
+        <v>323</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7602,7 +7650,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7614,13 +7662,13 @@
         <v>2845</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>55</v>
+        <v>544</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -7629,13 +7677,13 @@
         <v>1644</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>539</v>
+        <v>311</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -7644,13 +7692,13 @@
         <v>4489</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>69</v>
+        <v>548</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>454</v>
+        <v>550</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7665,13 +7713,13 @@
         <v>16597</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>541</v>
+        <v>551</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>63</v>
+        <v>553</v>
       </c>
       <c r="H17" s="7">
         <v>25</v>
@@ -7680,13 +7728,13 @@
         <v>10337</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>543</v>
+        <v>554</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>544</v>
+        <v>321</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>545</v>
+        <v>555</v>
       </c>
       <c r="M17" s="7">
         <v>48</v>
@@ -7695,13 +7743,13 @@
         <v>26933</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>79</v>
+        <v>556</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>462</v>
+        <v>557</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7769,13 +7817,13 @@
         <v>6495</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
       <c r="H19" s="7">
         <v>13</v>
@@ -7784,13 +7832,13 @@
         <v>8228</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
       <c r="M19" s="7">
         <v>20</v>
@@ -7799,13 +7847,13 @@
         <v>14724</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7820,13 +7868,13 @@
         <v>26211</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="H20" s="7">
         <v>37</v>
@@ -7835,13 +7883,13 @@
         <v>24243</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="M20" s="7">
         <v>69</v>
@@ -7850,13 +7898,13 @@
         <v>50453</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7924,13 +7972,13 @@
         <v>18515</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="H22" s="7">
         <v>41</v>
@@ -7939,13 +7987,13 @@
         <v>30083</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
       <c r="M22" s="7">
         <v>60</v>
@@ -7954,13 +8002,13 @@
         <v>48598</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7975,13 +8023,13 @@
         <v>55862</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
       <c r="H23" s="7">
         <v>62</v>
@@ -7990,13 +8038,13 @@
         <v>44997</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="M23" s="7">
         <v>113</v>
@@ -8005,13 +8053,13 @@
         <v>100860</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8079,13 +8127,13 @@
         <v>15982</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="H25" s="7">
         <v>13</v>
@@ -8094,13 +8142,13 @@
         <v>19388</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="M25" s="7">
         <v>28</v>
@@ -8109,13 +8157,13 @@
         <v>35370</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8130,13 +8178,13 @@
         <v>51074</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
       <c r="H26" s="7">
         <v>56</v>
@@ -8145,13 +8193,13 @@
         <v>47748</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
       <c r="M26" s="7">
         <v>98</v>
@@ -8160,13 +8208,13 @@
         <v>98821</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>599</v>
+        <v>611</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>600</v>
+        <v>612</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8234,13 +8282,13 @@
         <v>78977</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>601</v>
+        <v>613</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>603</v>
+        <v>615</v>
       </c>
       <c r="H28" s="7">
         <v>151</v>
@@ -8249,13 +8297,13 @@
         <v>125402</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>166</v>
+        <v>616</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>604</v>
+        <v>617</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>605</v>
+        <v>618</v>
       </c>
       <c r="M28" s="7">
         <v>225</v>
@@ -8264,13 +8312,13 @@
         <v>204379</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>606</v>
+        <v>619</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>607</v>
+        <v>620</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>338</v>
+        <v>621</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8285,13 +8333,13 @@
         <v>274041</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>608</v>
+        <v>622</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>609</v>
+        <v>623</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>610</v>
+        <v>624</v>
       </c>
       <c r="H29" s="7">
         <v>323</v>
@@ -8300,13 +8348,13 @@
         <v>235809</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>176</v>
+        <v>625</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>611</v>
+        <v>626</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>612</v>
+        <v>627</v>
       </c>
       <c r="M29" s="7">
         <v>587</v>
@@ -8315,13 +8363,13 @@
         <v>509849</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>613</v>
+        <v>628</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>347</v>
+        <v>629</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>614</v>
+        <v>630</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8377,7 +8425,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6905-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6905-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60366B2F-CBCA-48B9-8F5A-8A232076F5D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3F31F28-8D63-46E8-A0BC-79E789471D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AC2BFE8B-6370-428C-8581-A45EE77F7739}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{9924F5BC-A72B-498F-97A8-0923F043D172}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="642">
   <si>
     <t>Población según si su trabajo le afecta de manera que tiene dolores de cabeza en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -581,7 +581,58 @@
     <t>Población según si su trabajo le afecta de manera que tiene dolores de cabeza en 2012 (Tasa respuesta: 7,82%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>64,47%</t>
+  </si>
+  <si>
+    <t>67,7%</t>
+  </si>
+  <si>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>69,23%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>55,7%</t>
   </si>
   <si>
     <t>29,22%</t>
@@ -692,58 +743,52 @@
     <t>86,6%</t>
   </si>
   <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>58,34%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>67,77%</t>
-  </si>
-  <si>
-    <t>56,43%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>54,51%</t>
-  </si>
-  <si>
-    <t>57,06%</t>
-  </si>
-  <si>
-    <t>47,66%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>82,52%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>50,91%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>69,74%</t>
+  </si>
+  <si>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
   </si>
   <si>
     <t>18,6%</t>
@@ -1472,466 +1517,454 @@
     <t>Población según si su trabajo le afecta de manera que tiene dolores de cabeza en 2023 (Tasa respuesta: 9,29%)</t>
   </si>
   <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>60,7%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>58,51%</t>
-  </si>
-  <si>
-    <t>60,46%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>53,09%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>71,53%</t>
-  </si>
-  <si>
-    <t>57,37%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>70,3%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>69,81%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>49,98%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>61,37%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>61,87%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>64,33%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>76,34%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>68,37%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>67,22%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>61,3%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>52,3%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>70,93%</t>
+  </si>
+  <si>
+    <t>55,78%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>56,08%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>69,51%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>49,78%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>59,47%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>56,21%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>61,27%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>60,33%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>68,74%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
   </si>
   <si>
     <t>25,34%</t>
   </si>
   <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>63,48%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
   </si>
   <si>
     <t>74,66%</t>
   </si>
   <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>67,5%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>75,11%</t>
-  </si>
-  <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>59,93%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>67,48%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>67,51%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>50,65%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>75,39%</t>
+  </si>
+  <si>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>60,3%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>69,9%</t>
+  </si>
+  <si>
+    <t>67,98%</t>
+  </si>
+  <si>
+    <t>60,01%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
   </si>
   <si>
     <t>14,43%</t>
   </si>
   <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>55,1%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>63,6%</t>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>52,77%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
   </si>
   <si>
     <t>85,57%</t>
   </si>
   <si>
-    <t>71,12%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>72,29%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>65,28%</t>
-  </si>
-  <si>
-    <t>59,44%</t>
-  </si>
-  <si>
-    <t>70,34%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>74,7%</t>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>61,79%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>76,89%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>77,12%</t>
   </si>
 </sst>
 </file>
@@ -2343,7 +2376,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F86DF770-7828-441A-A86D-21AD5ADF8FB0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD683FB9-AA91-4529-B889-AF3A3164FDCF}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3874,7 +3907,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C33001A8-7859-4DDF-9F68-7D43A5E2182D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08D76643-D096-4FF4-91AA-B415E622339B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3992,43 +4025,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="D4" s="7">
+        <v>19347</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>180</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="I4" s="7">
+        <v>19737</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>35</v>
+      </c>
+      <c r="N4" s="7">
+        <v>39084</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4037,43 +4076,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="D5" s="7">
+        <v>20147</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="I5" s="7">
+        <v>9415</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="N5" s="7">
+        <v>29562</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4082,43 +4127,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>38</v>
+      </c>
+      <c r="D6" s="7">
+        <v>39494</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="I6" s="7">
+        <v>29152</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>64</v>
+      </c>
+      <c r="N6" s="7">
+        <v>68646</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4135,13 +4186,13 @@
         <v>16536</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -4150,13 +4201,13 @@
         <v>7131</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="M7" s="7">
         <v>24</v>
@@ -4165,13 +4216,13 @@
         <v>23667</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4186,13 +4237,13 @@
         <v>40054</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="H8" s="7">
         <v>24</v>
@@ -4201,13 +4252,13 @@
         <v>27184</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="M8" s="7">
         <v>60</v>
@@ -4216,13 +4267,13 @@
         <v>67238</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4290,13 +4341,13 @@
         <v>6688</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -4305,13 +4356,13 @@
         <v>4003</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -4320,13 +4371,13 @@
         <v>10691</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4341,13 +4392,13 @@
         <v>17588</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="H11" s="7">
         <v>13</v>
@@ -4356,13 +4407,13 @@
         <v>13932</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="M11" s="7">
         <v>31</v>
@@ -4371,13 +4422,13 @@
         <v>31521</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4439,49 +4490,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="D13" s="7">
-        <v>27188</v>
+        <v>7841</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="H13" s="7">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="I13" s="7">
-        <v>34236</v>
+        <v>14499</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="M13" s="7">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="N13" s="7">
-        <v>61423</v>
+        <v>22339</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4490,49 +4541,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="D14" s="7">
-        <v>57166</v>
+        <v>37019</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="H14" s="7">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="I14" s="7">
-        <v>24451</v>
+        <v>15036</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="M14" s="7">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="N14" s="7">
-        <v>81618</v>
+        <v>52056</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4541,10 +4592,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="D15" s="7">
-        <v>84354</v>
+        <v>44860</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4556,10 +4607,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="I15" s="7">
-        <v>58687</v>
+        <v>29535</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4571,10 +4622,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="N15" s="7">
-        <v>143041</v>
+        <v>74395</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4600,13 +4651,13 @@
         <v>3008</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -4615,13 +4666,13 @@
         <v>7785</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -4630,13 +4681,13 @@
         <v>10792</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4651,13 +4702,13 @@
         <v>13161</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -4666,13 +4717,13 @@
         <v>3876</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="M17" s="7">
         <v>16</v>
@@ -4681,13 +4732,13 @@
         <v>17038</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4755,13 +4806,13 @@
         <v>9805</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -4770,13 +4821,13 @@
         <v>3775</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="M19" s="7">
         <v>13</v>
@@ -4785,13 +4836,13 @@
         <v>13580</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4806,13 +4857,13 @@
         <v>33575</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="H20" s="7">
         <v>11</v>
@@ -4821,13 +4872,13 @@
         <v>11409</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="M20" s="7">
         <v>44</v>
@@ -4836,13 +4887,13 @@
         <v>44984</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4910,13 +4961,13 @@
         <v>15194</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="H22" s="7">
         <v>19</v>
@@ -4925,13 +4976,13 @@
         <v>20142</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="M22" s="7">
         <v>33</v>
@@ -4940,13 +4991,13 @@
         <v>35336</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4961,13 +5012,13 @@
         <v>39236</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="H23" s="7">
         <v>25</v>
@@ -4976,13 +5027,13 @@
         <v>26238</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="M23" s="7">
         <v>63</v>
@@ -4991,13 +5042,13 @@
         <v>65474</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5065,13 +5116,13 @@
         <v>6125</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -5080,13 +5131,13 @@
         <v>10977</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="M25" s="7">
         <v>14</v>
@@ -5095,13 +5146,13 @@
         <v>17102</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5116,13 +5167,13 @@
         <v>40023</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="H26" s="7">
         <v>18</v>
@@ -5131,13 +5182,13 @@
         <v>19695</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="M26" s="7">
         <v>56</v>
@@ -5146,13 +5197,13 @@
         <v>59718</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5220,13 +5271,13 @@
         <v>84545</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="H28" s="7">
         <v>80</v>
@@ -5235,13 +5286,13 @@
         <v>88049</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="M28" s="7">
         <v>161</v>
@@ -5250,13 +5301,13 @@
         <v>172594</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5271,13 +5322,13 @@
         <v>240802</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="H29" s="7">
         <v>117</v>
@@ -5286,13 +5337,13 @@
         <v>126786</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="M29" s="7">
         <v>348</v>
@@ -5301,13 +5352,13 @@
         <v>367588</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5387,7 +5438,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{258CE321-0EF6-4373-829F-5E3BBD9F0C92}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FE69C4C-CA7C-4989-BA6B-D131FF73644F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5404,7 +5455,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5511,13 +5562,13 @@
         <v>19052</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="H4" s="7">
         <v>20</v>
@@ -5526,13 +5577,13 @@
         <v>20660</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="M4" s="7">
         <v>36</v>
@@ -5541,13 +5592,13 @@
         <v>39712</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5562,13 +5613,13 @@
         <v>39525</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="H5" s="7">
         <v>19</v>
@@ -5577,13 +5628,13 @@
         <v>20224</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="M5" s="7">
         <v>54</v>
@@ -5592,13 +5643,13 @@
         <v>59749</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5666,13 +5717,13 @@
         <v>26833</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="H7" s="7">
         <v>18</v>
@@ -5681,13 +5732,13 @@
         <v>18723</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="M7" s="7">
         <v>44</v>
@@ -5696,13 +5747,13 @@
         <v>45556</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5717,13 +5768,13 @@
         <v>55953</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="H8" s="7">
         <v>23</v>
@@ -5732,13 +5783,13 @@
         <v>23974</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="M8" s="7">
         <v>75</v>
@@ -5747,13 +5798,13 @@
         <v>79927</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5821,10 +5872,10 @@
         <v>2652</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>160</v>
@@ -5839,10 +5890,10 @@
         <v>74</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -5851,13 +5902,13 @@
         <v>4456</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5872,13 +5923,13 @@
         <v>18602</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>169</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="H11" s="7">
         <v>11</v>
@@ -5890,10 +5941,10 @@
         <v>84</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="M11" s="7">
         <v>30</v>
@@ -5902,13 +5953,13 @@
         <v>29299</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5976,13 +6027,13 @@
         <v>13309</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="H13" s="7">
         <v>16</v>
@@ -5991,13 +6042,13 @@
         <v>16051</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="M13" s="7">
         <v>28</v>
@@ -6006,13 +6057,13 @@
         <v>29360</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>383</v>
+        <v>398</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6027,13 +6078,13 @@
         <v>19156</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>384</v>
+        <v>399</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>386</v>
+        <v>401</v>
       </c>
       <c r="H14" s="7">
         <v>13</v>
@@ -6042,13 +6093,13 @@
         <v>13884</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="M14" s="7">
         <v>31</v>
@@ -6057,13 +6108,13 @@
         <v>33040</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6131,13 +6182,13 @@
         <v>6448</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -6146,13 +6197,13 @@
         <v>4004</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -6161,13 +6212,13 @@
         <v>10452</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>398</v>
+        <v>413</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6182,13 +6233,13 @@
         <v>8422</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>401</v>
+        <v>416</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>402</v>
+        <v>417</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -6197,13 +6248,13 @@
         <v>1767</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>403</v>
+        <v>418</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>404</v>
+        <v>419</v>
       </c>
       <c r="M17" s="7">
         <v>10</v>
@@ -6212,13 +6263,13 @@
         <v>10189</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>407</v>
+        <v>422</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6286,13 +6337,13 @@
         <v>2976</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -6301,13 +6352,13 @@
         <v>3434</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>412</v>
+        <v>427</v>
       </c>
       <c r="M19" s="7">
         <v>6</v>
@@ -6316,13 +6367,13 @@
         <v>6410</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>414</v>
+        <v>429</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>415</v>
+        <v>430</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6337,13 +6388,13 @@
         <v>19458</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>416</v>
+        <v>431</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -6352,13 +6403,13 @@
         <v>3993</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>418</v>
+        <v>433</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>419</v>
+        <v>434</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="M20" s="7">
         <v>23</v>
@@ -6367,13 +6418,13 @@
         <v>23450</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>421</v>
+        <v>436</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>422</v>
+        <v>437</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>423</v>
+        <v>438</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6441,13 +6492,13 @@
         <v>13148</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>424</v>
+        <v>439</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>426</v>
+        <v>441</v>
       </c>
       <c r="H22" s="7">
         <v>20</v>
@@ -6456,13 +6507,13 @@
         <v>20927</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>429</v>
+        <v>444</v>
       </c>
       <c r="M22" s="7">
         <v>32</v>
@@ -6471,13 +6522,13 @@
         <v>34075</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>430</v>
+        <v>445</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6492,13 +6543,13 @@
         <v>65194</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>433</v>
+        <v>448</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="H23" s="7">
         <v>32</v>
@@ -6507,13 +6558,13 @@
         <v>34755</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>436</v>
+        <v>451</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="M23" s="7">
         <v>89</v>
@@ -6522,13 +6573,13 @@
         <v>99949</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>441</v>
+        <v>456</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6596,13 +6647,13 @@
         <v>10646</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>442</v>
+        <v>457</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>443</v>
+        <v>458</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -6611,13 +6662,13 @@
         <v>3972</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="M25" s="7">
         <v>14</v>
@@ -6626,13 +6677,13 @@
         <v>14618</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>449</v>
+        <v>464</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6647,13 +6698,13 @@
         <v>28628</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="H26" s="7">
         <v>16</v>
@@ -6662,13 +6713,13 @@
         <v>17428</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>455</v>
+        <v>470</v>
       </c>
       <c r="M26" s="7">
         <v>43</v>
@@ -6677,13 +6728,13 @@
         <v>46056</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6751,13 +6802,13 @@
         <v>95064</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>458</v>
+        <v>473</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>460</v>
+        <v>475</v>
       </c>
       <c r="H28" s="7">
         <v>87</v>
@@ -6766,13 +6817,13 @@
         <v>89574</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>462</v>
+        <v>477</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>463</v>
+        <v>478</v>
       </c>
       <c r="M28" s="7">
         <v>174</v>
@@ -6781,13 +6832,13 @@
         <v>184638</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>466</v>
+        <v>481</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6802,13 +6853,13 @@
         <v>254937</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>467</v>
+        <v>482</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>468</v>
+        <v>483</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="H29" s="7">
         <v>120</v>
@@ -6817,13 +6868,13 @@
         <v>126724</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>470</v>
+        <v>485</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>472</v>
+        <v>487</v>
       </c>
       <c r="M29" s="7">
         <v>355</v>
@@ -6832,13 +6883,13 @@
         <v>381661</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>473</v>
+        <v>488</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>474</v>
+        <v>489</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>475</v>
+        <v>490</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6918,7 +6969,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{015B240E-18BD-41C4-9D88-BB2410F8FE96}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CF0E012-DD2B-411C-8718-861BCF2FE416}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6935,7 +6986,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7039,46 +7090,46 @@
         <v>7</v>
       </c>
       <c r="D4" s="7">
-        <v>8134</v>
+        <v>10097</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>477</v>
+        <v>492</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>478</v>
+        <v>493</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>479</v>
+        <v>19</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
       </c>
       <c r="I4" s="7">
-        <v>6963</v>
+        <v>7515</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>480</v>
+        <v>494</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>481</v>
+        <v>495</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>482</v>
+        <v>496</v>
       </c>
       <c r="M4" s="7">
         <v>19</v>
       </c>
       <c r="N4" s="7">
-        <v>15098</v>
+        <v>17612</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>483</v>
+        <v>497</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>484</v>
+        <v>498</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>485</v>
+        <v>499</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7090,46 +7141,46 @@
         <v>21</v>
       </c>
       <c r="D5" s="7">
-        <v>12437</v>
+        <v>13972</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>486</v>
+        <v>500</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>487</v>
+        <v>28</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>488</v>
+        <v>501</v>
       </c>
       <c r="H5" s="7">
         <v>18</v>
       </c>
       <c r="I5" s="7">
-        <v>7880</v>
+        <v>8240</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>489</v>
+        <v>502</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>490</v>
+        <v>503</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>491</v>
+        <v>504</v>
       </c>
       <c r="M5" s="7">
         <v>39</v>
       </c>
       <c r="N5" s="7">
-        <v>20316</v>
+        <v>22212</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>493</v>
+        <v>506</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7141,7 +7192,7 @@
         <v>28</v>
       </c>
       <c r="D6" s="7">
-        <v>20571</v>
+        <v>24069</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -7156,7 +7207,7 @@
         <v>30</v>
       </c>
       <c r="I6" s="7">
-        <v>14843</v>
+        <v>15755</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -7171,7 +7222,7 @@
         <v>58</v>
       </c>
       <c r="N6" s="7">
-        <v>35414</v>
+        <v>39824</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -7194,46 +7245,46 @@
         <v>7</v>
       </c>
       <c r="D7" s="7">
-        <v>8675</v>
+        <v>9017</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>495</v>
+        <v>508</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>497</v>
+        <v>510</v>
       </c>
       <c r="H7" s="7">
         <v>31</v>
       </c>
       <c r="I7" s="7">
-        <v>27406</v>
+        <v>25485</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>498</v>
+        <v>511</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>499</v>
+        <v>512</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>500</v>
+        <v>513</v>
       </c>
       <c r="M7" s="7">
         <v>38</v>
       </c>
       <c r="N7" s="7">
-        <v>36080</v>
+        <v>34502</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>501</v>
+        <v>514</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>502</v>
+        <v>473</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7245,46 +7296,46 @@
         <v>25</v>
       </c>
       <c r="D8" s="7">
-        <v>37326</v>
+        <v>37263</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
       <c r="H8" s="7">
         <v>28</v>
       </c>
       <c r="I8" s="7">
-        <v>21215</v>
+        <v>19958</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="M8" s="7">
         <v>53</v>
       </c>
       <c r="N8" s="7">
-        <v>58542</v>
+        <v>57221</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>512</v>
+        <v>482</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7296,7 +7347,7 @@
         <v>32</v>
       </c>
       <c r="D9" s="7">
-        <v>46001</v>
+        <v>46280</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -7311,7 +7362,7 @@
         <v>59</v>
       </c>
       <c r="I9" s="7">
-        <v>48621</v>
+        <v>45443</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -7326,7 +7377,7 @@
         <v>91</v>
       </c>
       <c r="N9" s="7">
-        <v>94622</v>
+        <v>91723</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -7349,46 +7400,46 @@
         <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>2049</v>
+        <v>1986</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
       </c>
       <c r="I10" s="7">
-        <v>9520</v>
+        <v>8967</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>515</v>
+        <v>526</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
       </c>
       <c r="N10" s="7">
-        <v>11570</v>
+        <v>10953</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>520</v>
+        <v>531</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7400,46 +7451,46 @@
         <v>51</v>
       </c>
       <c r="D11" s="7">
-        <v>48681</v>
+        <v>47509</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>521</v>
+        <v>532</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>522</v>
+        <v>533</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="H11" s="7">
         <v>57</v>
       </c>
       <c r="I11" s="7">
-        <v>39401</v>
+        <v>36959</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="M11" s="7">
         <v>108</v>
       </c>
       <c r="N11" s="7">
-        <v>88081</v>
+        <v>84469</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>526</v>
+        <v>537</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>527</v>
+        <v>538</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>528</v>
+        <v>539</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7451,7 +7502,7 @@
         <v>53</v>
       </c>
       <c r="D12" s="7">
-        <v>50730</v>
+        <v>49495</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -7466,7 +7517,7 @@
         <v>70</v>
       </c>
       <c r="I12" s="7">
-        <v>48921</v>
+        <v>45926</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -7481,7 +7532,7 @@
         <v>123</v>
       </c>
       <c r="N12" s="7">
-        <v>99651</v>
+        <v>95422</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -7504,46 +7555,46 @@
         <v>13</v>
       </c>
       <c r="D13" s="7">
-        <v>16281</v>
+        <v>16007</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>531</v>
+        <v>542</v>
       </c>
       <c r="H13" s="7">
         <v>25</v>
       </c>
       <c r="I13" s="7">
-        <v>22169</v>
+        <v>19953</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>533</v>
+        <v>235</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>329</v>
+        <v>544</v>
       </c>
       <c r="M13" s="7">
         <v>38</v>
       </c>
       <c r="N13" s="7">
-        <v>38451</v>
+        <v>35960</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>315</v>
+        <v>545</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7555,46 +7606,46 @@
         <v>19</v>
       </c>
       <c r="D14" s="7">
-        <v>25853</v>
+        <v>24346</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
       <c r="H14" s="7">
         <v>40</v>
       </c>
       <c r="I14" s="7">
-        <v>39990</v>
+        <v>60699</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>338</v>
+        <v>552</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>540</v>
+        <v>244</v>
       </c>
       <c r="M14" s="7">
         <v>59</v>
       </c>
       <c r="N14" s="7">
-        <v>65842</v>
+        <v>85045</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>323</v>
+        <v>553</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>541</v>
+        <v>554</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>542</v>
+        <v>555</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7606,7 +7657,7 @@
         <v>32</v>
       </c>
       <c r="D15" s="7">
-        <v>42134</v>
+        <v>40353</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -7621,7 +7672,7 @@
         <v>65</v>
       </c>
       <c r="I15" s="7">
-        <v>62159</v>
+        <v>80652</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -7636,7 +7687,7 @@
         <v>97</v>
       </c>
       <c r="N15" s="7">
-        <v>104293</v>
+        <v>121005</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7659,46 +7710,46 @@
         <v>4</v>
       </c>
       <c r="D16" s="7">
-        <v>2845</v>
+        <v>2573</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>543</v>
+        <v>556</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>544</v>
+        <v>557</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>545</v>
+        <v>558</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>1644</v>
+        <v>1477</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>546</v>
+        <v>559</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>547</v>
+        <v>560</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>311</v>
+        <v>561</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
       </c>
       <c r="N16" s="7">
-        <v>4489</v>
+        <v>4050</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>548</v>
+        <v>562</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>549</v>
+        <v>563</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>550</v>
+        <v>564</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7710,46 +7761,46 @@
         <v>23</v>
       </c>
       <c r="D17" s="7">
-        <v>16597</v>
+        <v>15184</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>551</v>
+        <v>565</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>553</v>
+        <v>567</v>
       </c>
       <c r="H17" s="7">
         <v>25</v>
       </c>
       <c r="I17" s="7">
-        <v>10337</v>
+        <v>9509</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>554</v>
+        <v>568</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>321</v>
+        <v>569</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>555</v>
+        <v>570</v>
       </c>
       <c r="M17" s="7">
         <v>48</v>
       </c>
       <c r="N17" s="7">
-        <v>26933</v>
+        <v>24693</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>556</v>
+        <v>571</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>557</v>
+        <v>572</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>558</v>
+        <v>573</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7761,7 +7812,7 @@
         <v>27</v>
       </c>
       <c r="D18" s="7">
-        <v>19442</v>
+        <v>17757</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -7776,7 +7827,7 @@
         <v>28</v>
       </c>
       <c r="I18" s="7">
-        <v>11981</v>
+        <v>10986</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -7791,7 +7842,7 @@
         <v>55</v>
       </c>
       <c r="N18" s="7">
-        <v>31422</v>
+        <v>28743</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -7814,46 +7865,46 @@
         <v>7</v>
       </c>
       <c r="D19" s="7">
-        <v>6495</v>
+        <v>6273</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>560</v>
+        <v>575</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>561</v>
+        <v>576</v>
       </c>
       <c r="H19" s="7">
         <v>13</v>
       </c>
       <c r="I19" s="7">
-        <v>8228</v>
+        <v>7657</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>562</v>
+        <v>577</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>563</v>
+        <v>578</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>564</v>
+        <v>579</v>
       </c>
       <c r="M19" s="7">
         <v>20</v>
       </c>
       <c r="N19" s="7">
-        <v>14724</v>
+        <v>13930</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>565</v>
+        <v>580</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>566</v>
+        <v>581</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>567</v>
+        <v>582</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7865,46 +7916,46 @@
         <v>32</v>
       </c>
       <c r="D20" s="7">
-        <v>26211</v>
+        <v>25343</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>568</v>
+        <v>583</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>569</v>
+        <v>584</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>570</v>
+        <v>585</v>
       </c>
       <c r="H20" s="7">
         <v>37</v>
       </c>
       <c r="I20" s="7">
-        <v>24243</v>
+        <v>22558</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>571</v>
+        <v>586</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>572</v>
+        <v>587</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>573</v>
+        <v>588</v>
       </c>
       <c r="M20" s="7">
         <v>69</v>
       </c>
       <c r="N20" s="7">
-        <v>50453</v>
+        <v>47901</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>574</v>
+        <v>589</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>575</v>
+        <v>590</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>576</v>
+        <v>591</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7916,7 +7967,7 @@
         <v>39</v>
       </c>
       <c r="D21" s="7">
-        <v>32706</v>
+        <v>31616</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -7931,7 +7982,7 @@
         <v>50</v>
       </c>
       <c r="I21" s="7">
-        <v>32471</v>
+        <v>30215</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -7946,7 +7997,7 @@
         <v>89</v>
       </c>
       <c r="N21" s="7">
-        <v>65177</v>
+        <v>61831</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -7969,46 +8020,46 @@
         <v>19</v>
       </c>
       <c r="D22" s="7">
-        <v>18515</v>
+        <v>18012</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>577</v>
+        <v>592</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>578</v>
+        <v>593</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>579</v>
+        <v>594</v>
       </c>
       <c r="H22" s="7">
         <v>41</v>
       </c>
       <c r="I22" s="7">
-        <v>30083</v>
+        <v>28002</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>580</v>
+        <v>595</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>581</v>
+        <v>596</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>582</v>
+        <v>597</v>
       </c>
       <c r="M22" s="7">
         <v>60</v>
       </c>
       <c r="N22" s="7">
-        <v>48598</v>
+        <v>46014</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>583</v>
+        <v>598</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>584</v>
+        <v>599</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>585</v>
+        <v>600</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8020,46 +8071,46 @@
         <v>51</v>
       </c>
       <c r="D23" s="7">
-        <v>55862</v>
+        <v>55166</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>586</v>
+        <v>601</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>587</v>
+        <v>602</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>588</v>
+        <v>603</v>
       </c>
       <c r="H23" s="7">
         <v>62</v>
       </c>
       <c r="I23" s="7">
-        <v>44997</v>
+        <v>42525</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>589</v>
+        <v>604</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>590</v>
+        <v>605</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>591</v>
+        <v>606</v>
       </c>
       <c r="M23" s="7">
         <v>113</v>
       </c>
       <c r="N23" s="7">
-        <v>100860</v>
+        <v>97691</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>592</v>
+        <v>607</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>593</v>
+        <v>608</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>594</v>
+        <v>609</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8071,7 +8122,7 @@
         <v>70</v>
       </c>
       <c r="D24" s="7">
-        <v>74377</v>
+        <v>73178</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -8086,7 +8137,7 @@
         <v>103</v>
       </c>
       <c r="I24" s="7">
-        <v>75080</v>
+        <v>70527</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -8101,7 +8152,7 @@
         <v>173</v>
       </c>
       <c r="N24" s="7">
-        <v>149458</v>
+        <v>143705</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -8124,46 +8175,46 @@
         <v>15</v>
       </c>
       <c r="D25" s="7">
-        <v>15982</v>
+        <v>13585</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>595</v>
+        <v>610</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>596</v>
+        <v>611</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>597</v>
+        <v>612</v>
       </c>
       <c r="H25" s="7">
         <v>13</v>
       </c>
       <c r="I25" s="7">
-        <v>19388</v>
+        <v>15351</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>598</v>
+        <v>613</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>599</v>
+        <v>614</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>600</v>
+        <v>615</v>
       </c>
       <c r="M25" s="7">
         <v>28</v>
       </c>
       <c r="N25" s="7">
-        <v>35370</v>
+        <v>28936</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>601</v>
+        <v>616</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>602</v>
+        <v>617</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>603</v>
+        <v>618</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8175,46 +8226,46 @@
         <v>42</v>
       </c>
       <c r="D26" s="7">
-        <v>51074</v>
+        <v>43172</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>604</v>
+        <v>619</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>605</v>
+        <v>620</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>606</v>
+        <v>621</v>
       </c>
       <c r="H26" s="7">
         <v>56</v>
       </c>
       <c r="I26" s="7">
-        <v>47748</v>
+        <v>39359</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>607</v>
+        <v>622</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>608</v>
+        <v>623</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>609</v>
+        <v>624</v>
       </c>
       <c r="M26" s="7">
         <v>98</v>
       </c>
       <c r="N26" s="7">
-        <v>98821</v>
+        <v>82531</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>610</v>
+        <v>625</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>611</v>
+        <v>626</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>612</v>
+        <v>627</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8226,7 +8277,7 @@
         <v>57</v>
       </c>
       <c r="D27" s="7">
-        <v>67056</v>
+        <v>56757</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -8241,7 +8292,7 @@
         <v>69</v>
       </c>
       <c r="I27" s="7">
-        <v>67136</v>
+        <v>54710</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -8256,7 +8307,7 @@
         <v>126</v>
       </c>
       <c r="N27" s="7">
-        <v>134191</v>
+        <v>111467</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -8279,46 +8330,46 @@
         <v>74</v>
       </c>
       <c r="D28" s="7">
-        <v>78977</v>
+        <v>77549</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>613</v>
+        <v>628</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>614</v>
+        <v>446</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>615</v>
+        <v>629</v>
       </c>
       <c r="H28" s="7">
         <v>151</v>
       </c>
       <c r="I28" s="7">
-        <v>125402</v>
+        <v>114409</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>616</v>
+        <v>192</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>617</v>
+        <v>630</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>618</v>
+        <v>631</v>
       </c>
       <c r="M28" s="7">
         <v>225</v>
       </c>
       <c r="N28" s="7">
-        <v>204379</v>
+        <v>191958</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>619</v>
+        <v>632</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>620</v>
+        <v>633</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>621</v>
+        <v>634</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8330,46 +8381,46 @@
         <v>264</v>
       </c>
       <c r="D29" s="7">
-        <v>274041</v>
+        <v>261956</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>622</v>
+        <v>635</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>623</v>
+        <v>636</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>624</v>
+        <v>456</v>
       </c>
       <c r="H29" s="7">
         <v>323</v>
       </c>
       <c r="I29" s="7">
-        <v>235809</v>
+        <v>239806</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>625</v>
+        <v>183</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>626</v>
+        <v>637</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>627</v>
+        <v>638</v>
       </c>
       <c r="M29" s="7">
         <v>587</v>
       </c>
       <c r="N29" s="7">
-        <v>509849</v>
+        <v>501762</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>628</v>
+        <v>639</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>629</v>
+        <v>640</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>630</v>
+        <v>641</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8381,7 +8432,7 @@
         <v>338</v>
       </c>
       <c r="D30" s="7">
-        <v>353018</v>
+        <v>339505</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8396,7 +8447,7 @@
         <v>474</v>
       </c>
       <c r="I30" s="7">
-        <v>361211</v>
+        <v>354215</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -8411,7 +8462,7 @@
         <v>812</v>
       </c>
       <c r="N30" s="7">
-        <v>714228</v>
+        <v>693720</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
